--- a/teaching/traditional_assets/database/data/turkey/turkey_food_wholesalers.xlsx
+++ b/teaching/traditional_assets/database/data/turkey/turkey_food_wholesalers.xlsx
@@ -650,10 +650,10 @@
         <v>0.1708154506437768</v>
       </c>
       <c r="X2">
-        <v>0.07594403517430001</v>
+        <v>0.07246074600063698</v>
       </c>
       <c r="Y2">
-        <v>0.09487141546947681</v>
+        <v>0.09835470464313983</v>
       </c>
       <c r="Z2">
         <v>-24.02941176470589</v>
@@ -662,10 +662,10 @@
         <v>-0.5494025735294118</v>
       </c>
       <c r="AB2">
-        <v>0.0737593615389482</v>
+        <v>0.0700056102926141</v>
       </c>
       <c r="AC2">
-        <v>-0.62316193506836</v>
+        <v>-0.6194081838220259</v>
       </c>
       <c r="AD2">
         <v>25.5</v>
@@ -784,10 +784,10 @@
         <v>0.1708154506437768</v>
       </c>
       <c r="X3">
-        <v>0.07594403517430001</v>
+        <v>0.07246074600063698</v>
       </c>
       <c r="Y3">
-        <v>0.09487141546947681</v>
+        <v>0.09835470464313983</v>
       </c>
       <c r="Z3">
         <v>-24.02941176470589</v>
@@ -796,10 +796,10 @@
         <v>-0.5494025735294118</v>
       </c>
       <c r="AB3">
-        <v>0.0737593615389482</v>
+        <v>0.0700056102926141</v>
       </c>
       <c r="AC3">
-        <v>-0.62316193506836</v>
+        <v>-0.6194081838220259</v>
       </c>
       <c r="AD3">
         <v>25.5</v>
@@ -1099,37 +1099,37 @@
         <v>0.170454545454545</v>
       </c>
       <c r="F2">
-        <v>0.93</v>
+        <v>0.64</v>
       </c>
       <c r="G2">
         <v>124.1</v>
       </c>
       <c r="H2">
-        <v>26.7468681321975</v>
+        <v>71.5012513743842</v>
       </c>
       <c r="I2">
         <v>89.3</v>
       </c>
       <c r="J2">
-        <v>105.574868132198</v>
+        <v>106.945251374384</v>
       </c>
       <c r="K2">
         <v>25.5</v>
       </c>
       <c r="L2">
-        <v>139.128</v>
+        <v>95.744</v>
       </c>
       <c r="M2">
-        <v>0.0737593615389482</v>
+        <v>0.0700056102926141</v>
       </c>
       <c r="N2">
-        <v>0.0634455448071735</v>
+        <v>0.0590052245378224</v>
       </c>
       <c r="O2">
-        <v>0.0631272831802361</v>
+        <v>0.058057283180236</v>
       </c>
       <c r="P2">
-        <v>0.022698</v>
+        <v>0.013884</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -1138,23 +1138,23 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="S2">
-        <v>0.0759440351743</v>
+        <v>0.072460746000637</v>
       </c>
       <c r="T2">
-        <v>0.604805782959621</v>
+        <v>0.139220734827284</v>
       </c>
       <c r="U2">
         <v>0.628481422153537</v>
       </c>
       <c r="V2">
-        <v>6.1548778870311</v>
+        <v>1.29277713392842</v>
       </c>
       <c r="W2">
-        <v>4.520053327737358</v>
+        <v>10.73790407378477</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -1163,16 +1163,16 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0158</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="AA2">
         <v>124.1</v>
       </c>
       <c r="AB2">
-        <v>0.09569739542691996</v>
+        <v>0.10049739542692</v>
       </c>
       <c r="AC2">
-        <v>0.08093241433363596</v>
+        <v>0.07443241433363595</v>
       </c>
       <c r="AD2">
         <v>0.22</v>
@@ -1367,13 +1367,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.06763606337336364</v>
+        <v>0.06373606207847107</v>
       </c>
       <c r="C2">
-        <v>158.5962126534711</v>
+        <v>158.8690505096446</v>
       </c>
       <c r="D2">
-        <v>98.29621265347112</v>
+        <v>98.56905050964465</v>
       </c>
       <c r="E2">
         <v>-25.5</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06763606337336364</v>
+        <v>0.06373606207847107</v>
       </c>
       <c r="T2">
         <v>0.5416663968973811</v>
       </c>
       <c r="U2">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V2">
         <v>0.22</v>
       </c>
       <c r="W2">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
@@ -1449,13 +1449,13 @@
         <v>0.01</v>
       </c>
       <c r="B3">
-        <v>0.06754108403394225</v>
+        <v>0.06364966274189844</v>
       </c>
       <c r="C3">
-        <v>157.2540521826166</v>
+        <v>157.5142457913904</v>
       </c>
       <c r="D3">
-        <v>98.45005218261656</v>
+        <v>98.71024579139038</v>
       </c>
       <c r="E3">
         <v>-24.004</v>
@@ -1482,37 +1482,37 @@
         <v>18.3</v>
       </c>
       <c r="M3">
-        <v>0.0339592</v>
+        <v>0.0242352</v>
       </c>
       <c r="N3">
-        <v>18.2660408</v>
+        <v>18.2757648</v>
       </c>
       <c r="O3">
-        <v>4.018528976</v>
+        <v>4.020668256</v>
       </c>
       <c r="P3">
-        <v>14.247511824</v>
+        <v>14.255096544</v>
       </c>
       <c r="Q3">
-        <v>18.647511824</v>
+        <v>18.655096544</v>
       </c>
       <c r="R3">
         <v>0.0101010101010101</v>
       </c>
       <c r="S3">
-        <v>0.06804446872115379</v>
+        <v>0.06416495226454387</v>
       </c>
       <c r="T3">
         <v>0.5459340715396028</v>
       </c>
       <c r="U3">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V3">
         <v>0.22</v>
       </c>
       <c r="W3">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         </is>
       </c>
       <c r="Y3">
-        <v>538.8819524605997</v>
+        <v>755.1000198059022</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1531,13 +1531,13 @@
         <v>0.02</v>
       </c>
       <c r="B4">
-        <v>0.06744610469452085</v>
+        <v>0.06356326340532581</v>
       </c>
       <c r="C4">
-        <v>155.9123740029472</v>
+        <v>156.1598461639012</v>
       </c>
       <c r="D4">
-        <v>98.60437400294724</v>
+        <v>98.85184616390116</v>
       </c>
       <c r="E4">
         <v>-22.508</v>
@@ -1564,37 +1564,37 @@
         <v>18.3</v>
       </c>
       <c r="M4">
-        <v>0.0679184</v>
+        <v>0.0484704</v>
       </c>
       <c r="N4">
-        <v>18.2320816</v>
+        <v>18.2515296</v>
       </c>
       <c r="O4">
-        <v>4.011057952</v>
+        <v>4.015336512</v>
       </c>
       <c r="P4">
-        <v>14.221023648</v>
+        <v>14.236193088</v>
       </c>
       <c r="Q4">
-        <v>18.621023648</v>
+        <v>18.636193088</v>
       </c>
       <c r="R4">
         <v>0.02040816326530612</v>
       </c>
       <c r="S4">
-        <v>0.06846120887196006</v>
+        <v>0.06460259531155695</v>
       </c>
       <c r="T4">
         <v>0.5502888415826863</v>
       </c>
       <c r="U4">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V4">
         <v>0.22</v>
       </c>
       <c r="W4">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="Y4">
-        <v>269.4409762302999</v>
+        <v>377.5500099029512</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1613,13 +1613,13 @@
         <v>0.03</v>
       </c>
       <c r="B5">
-        <v>0.06735112535509945</v>
+        <v>0.06347686406875316</v>
       </c>
       <c r="C5">
-        <v>154.5711803860182</v>
+        <v>154.8058533729959</v>
       </c>
       <c r="D5">
-        <v>98.75918038601819</v>
+        <v>98.99385337299591</v>
       </c>
       <c r="E5">
         <v>-21.012</v>
@@ -1646,37 +1646,37 @@
         <v>18.3</v>
       </c>
       <c r="M5">
-        <v>0.1018776</v>
+        <v>0.0727056</v>
       </c>
       <c r="N5">
-        <v>18.1981224</v>
+        <v>18.2272944</v>
       </c>
       <c r="O5">
-        <v>4.003586928</v>
+        <v>4.010004768000001</v>
       </c>
       <c r="P5">
-        <v>14.194535472</v>
+        <v>14.217289632</v>
       </c>
       <c r="Q5">
-        <v>18.594535472</v>
+        <v>18.617289632</v>
       </c>
       <c r="R5">
         <v>0.03092783505154639</v>
       </c>
       <c r="S5">
-        <v>0.06888654160319531</v>
+        <v>0.06504926192654965</v>
       </c>
       <c r="T5">
         <v>0.554733400698823</v>
       </c>
       <c r="U5">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V5">
         <v>0.22</v>
       </c>
       <c r="W5">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="Y5">
-        <v>179.6273174868666</v>
+        <v>251.7000066019674</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1695,13 +1695,13 @@
         <v>0.04</v>
       </c>
       <c r="B6">
-        <v>0.06725614601567804</v>
+        <v>0.06339046473218053</v>
       </c>
       <c r="C6">
-        <v>153.230473617672</v>
+        <v>153.45226917454</v>
       </c>
       <c r="D6">
-        <v>98.91447361767199</v>
+        <v>99.13626917453998</v>
       </c>
       <c r="E6">
         <v>-19.516</v>
@@ -1728,37 +1728,37 @@
         <v>18.3</v>
       </c>
       <c r="M6">
-        <v>0.1358368</v>
+        <v>0.09694079999999999</v>
       </c>
       <c r="N6">
-        <v>18.1641632</v>
+        <v>18.2030592</v>
       </c>
       <c r="O6">
-        <v>3.996115904</v>
+        <v>4.004673024000001</v>
       </c>
       <c r="P6">
-        <v>14.168047296</v>
+        <v>14.198386176</v>
       </c>
       <c r="Q6">
-        <v>18.568047296</v>
+        <v>18.598386176</v>
       </c>
       <c r="R6">
         <v>0.04166666666666667</v>
       </c>
       <c r="S6">
-        <v>0.06932073543299797</v>
+        <v>0.06550523409602139</v>
       </c>
       <c r="T6">
         <v>0.559270554796546</v>
       </c>
       <c r="U6">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V6">
         <v>0.22</v>
       </c>
       <c r="W6">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="Y6">
-        <v>134.7204881151499</v>
+        <v>188.7750049514756</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0.05</v>
       </c>
       <c r="B7">
-        <v>0.06716116667625666</v>
+        <v>0.06330406539560789</v>
       </c>
       <c r="C7">
-        <v>151.8902559981513</v>
+        <v>152.0990953345174</v>
       </c>
       <c r="D7">
-        <v>99.0702559981513</v>
+        <v>99.27909533451742</v>
       </c>
       <c r="E7">
         <v>-18.02</v>
@@ -1810,37 +1810,37 @@
         <v>18.3</v>
       </c>
       <c r="M7">
-        <v>0.169796</v>
+        <v>0.121176</v>
       </c>
       <c r="N7">
-        <v>18.130204</v>
+        <v>18.178824</v>
       </c>
       <c r="O7">
-        <v>3.98864488</v>
+        <v>3.99934128</v>
       </c>
       <c r="P7">
-        <v>14.14155912</v>
+        <v>14.17948272</v>
       </c>
       <c r="Q7">
-        <v>18.54155912</v>
+        <v>18.57948272</v>
       </c>
       <c r="R7">
         <v>0.05263157894736843</v>
       </c>
       <c r="S7">
-        <v>0.06976407018553332</v>
+        <v>0.06597080567958725</v>
       </c>
       <c r="T7">
         <v>0.5639032279279051</v>
       </c>
       <c r="U7">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V7">
         <v>0.22</v>
       </c>
       <c r="W7">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         </is>
       </c>
       <c r="Y7">
-        <v>107.7763904921199</v>
+        <v>151.0200039611804</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1859,13 +1859,13 @@
         <v>0.06</v>
       </c>
       <c r="B8">
-        <v>0.06706618733683524</v>
+        <v>0.06321766605903524</v>
       </c>
       <c r="C8">
-        <v>150.5505298422125</v>
+        <v>150.746333629104</v>
       </c>
       <c r="D8">
-        <v>99.22652984221254</v>
+        <v>99.42233362910405</v>
       </c>
       <c r="E8">
         <v>-16.524</v>
@@ -1892,37 +1892,37 @@
         <v>18.3</v>
       </c>
       <c r="M8">
-        <v>0.2037552</v>
+        <v>0.1454112</v>
       </c>
       <c r="N8">
-        <v>18.0962448</v>
+        <v>18.1545888</v>
       </c>
       <c r="O8">
-        <v>3.981173856</v>
+        <v>3.994009536</v>
       </c>
       <c r="P8">
-        <v>14.115070944</v>
+        <v>14.160579264</v>
       </c>
       <c r="Q8">
-        <v>18.515070944</v>
+        <v>18.560579264</v>
       </c>
       <c r="R8">
         <v>0.06382978723404255</v>
       </c>
       <c r="S8">
-        <v>0.07021683759237791</v>
+        <v>0.06644628304152686</v>
       </c>
       <c r="T8">
         <v>0.5686344685726974</v>
       </c>
       <c r="U8">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V8">
         <v>0.22</v>
       </c>
       <c r="W8">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         </is>
       </c>
       <c r="Y8">
-        <v>89.81365874343331</v>
+        <v>125.8500033009837</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -1941,13 +1941,13 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B9">
-        <v>0.06697120799741385</v>
+        <v>0.06313126672246262</v>
       </c>
       <c r="C9">
-        <v>149.2112974792402</v>
+        <v>149.393985844741</v>
       </c>
       <c r="D9">
-        <v>99.38329747924021</v>
+        <v>99.56598584474098</v>
       </c>
       <c r="E9">
         <v>-15.028</v>
@@ -1974,37 +1974,37 @@
         <v>18.3</v>
       </c>
       <c r="M9">
-        <v>0.2377144</v>
+        <v>0.1696464</v>
       </c>
       <c r="N9">
-        <v>18.0622856</v>
+        <v>18.1303536</v>
       </c>
       <c r="O9">
-        <v>3.973702832</v>
+        <v>3.988677792</v>
       </c>
       <c r="P9">
-        <v>14.088582768</v>
+        <v>14.141675808</v>
       </c>
       <c r="Q9">
-        <v>18.488582768</v>
+        <v>18.541675808</v>
       </c>
       <c r="R9">
         <v>0.07526881720430109</v>
       </c>
       <c r="S9">
-        <v>0.07067934193270306</v>
+        <v>0.0669319857230781</v>
       </c>
       <c r="T9">
         <v>0.5734674563281306</v>
       </c>
       <c r="U9">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V9">
         <v>0.22</v>
       </c>
       <c r="W9">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="Y9">
-        <v>76.98313606579995</v>
+        <v>107.8714314008432</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -2023,13 +2023,13 @@
         <v>0.08</v>
       </c>
       <c r="B10">
-        <v>0.06687622865799245</v>
+        <v>0.06304486738588999</v>
       </c>
       <c r="C10">
-        <v>147.8725612533631</v>
+        <v>148.0420537782091</v>
       </c>
       <c r="D10">
-        <v>99.54056125336308</v>
+        <v>99.71005377820906</v>
       </c>
       <c r="E10">
         <v>-13.532</v>
@@ -2056,37 +2056,37 @@
         <v>18.3</v>
       </c>
       <c r="M10">
-        <v>0.2716736</v>
+        <v>0.1938816</v>
       </c>
       <c r="N10">
-        <v>18.0283264</v>
+        <v>18.1061184</v>
       </c>
       <c r="O10">
-        <v>3.966231808</v>
+        <v>3.983346048</v>
       </c>
       <c r="P10">
-        <v>14.062094592</v>
+        <v>14.122772352</v>
       </c>
       <c r="Q10">
-        <v>18.462094592</v>
+        <v>18.522772352</v>
       </c>
       <c r="R10">
         <v>0.08695652173913043</v>
       </c>
       <c r="S10">
-        <v>0.07115190071520919</v>
+        <v>0.06742824715857607</v>
       </c>
       <c r="T10">
         <v>0.5784055090347686</v>
       </c>
       <c r="U10">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V10">
         <v>0.22</v>
       </c>
       <c r="W10">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X10" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         </is>
       </c>
       <c r="Y10">
-        <v>67.36024405757497</v>
+        <v>94.38750247573778</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -2105,13 +2105,13 @@
         <v>0.09</v>
       </c>
       <c r="B11">
-        <v>0.06678124931857106</v>
+        <v>0.06295846804931736</v>
       </c>
       <c r="C11">
-        <v>146.5343235235706</v>
+        <v>146.6905392367036</v>
       </c>
       <c r="D11">
-        <v>99.69832352357061</v>
+        <v>99.8545392367036</v>
       </c>
       <c r="E11">
         <v>-12.036</v>
@@ -2138,37 +2138,37 @@
         <v>18.3</v>
       </c>
       <c r="M11">
-        <v>0.3056328</v>
+        <v>0.2181168</v>
       </c>
       <c r="N11">
-        <v>17.9943672</v>
+        <v>18.0818832</v>
       </c>
       <c r="O11">
-        <v>3.958760784</v>
+        <v>3.978014304</v>
       </c>
       <c r="P11">
-        <v>14.035606416</v>
+        <v>14.103868896</v>
       </c>
       <c r="Q11">
-        <v>18.435606416</v>
+        <v>18.503868896</v>
       </c>
       <c r="R11">
         <v>0.0989010989010989</v>
       </c>
       <c r="S11">
-        <v>0.07163484540502313</v>
+        <v>0.06793541543881028</v>
       </c>
       <c r="T11">
         <v>0.5834520903723219</v>
       </c>
       <c r="U11">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V11">
         <v>0.22</v>
       </c>
       <c r="W11">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X11" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="Y11">
-        <v>59.8757724956222</v>
+        <v>83.90000220065581</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -2187,13 +2187,13 @@
         <v>0.1</v>
       </c>
       <c r="B12">
-        <v>0.06668626997914964</v>
+        <v>0.06287206871274473</v>
       </c>
       <c r="C12">
-        <v>145.1965866638313</v>
+        <v>145.3394440379101</v>
       </c>
       <c r="D12">
-        <v>99.85658666383128</v>
+        <v>99.99944403791007</v>
       </c>
       <c r="E12">
         <v>-10.54</v>
@@ -2220,37 +2220,37 @@
         <v>18.3</v>
       </c>
       <c r="M12">
-        <v>0.3395920000000001</v>
+        <v>0.242352</v>
       </c>
       <c r="N12">
-        <v>17.960408</v>
+        <v>18.057648</v>
       </c>
       <c r="O12">
-        <v>3.95128976</v>
+        <v>3.97268256</v>
       </c>
       <c r="P12">
-        <v>14.00911824</v>
+        <v>14.08496544</v>
       </c>
       <c r="Q12">
-        <v>18.40911824</v>
+        <v>18.48496544</v>
       </c>
       <c r="R12">
         <v>0.1111111111111111</v>
       </c>
       <c r="S12">
-        <v>0.07212852219905516</v>
+        <v>0.06845385412527191</v>
       </c>
       <c r="T12">
         <v>0.5886108179618208</v>
       </c>
       <c r="U12">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V12">
         <v>0.22</v>
       </c>
       <c r="W12">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X12" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         </is>
       </c>
       <c r="Y12">
-        <v>53.88819524605997</v>
+        <v>75.51000198059022</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -2269,13 +2269,13 @@
         <v>0.11</v>
       </c>
       <c r="B13">
-        <v>0.06659129063972825</v>
+        <v>0.06278566937617208</v>
       </c>
       <c r="C13">
-        <v>143.8593530632113</v>
+        <v>143.9887700100803</v>
       </c>
       <c r="D13">
-        <v>100.0153530632113</v>
+        <v>100.1447700100803</v>
       </c>
       <c r="E13">
         <v>-9.044</v>
@@ -2302,37 +2302,37 @@
         <v>18.3</v>
       </c>
       <c r="M13">
-        <v>0.3735512</v>
+        <v>0.2665872</v>
       </c>
       <c r="N13">
-        <v>17.9264488</v>
+        <v>18.0334128</v>
       </c>
       <c r="O13">
-        <v>3.943818736</v>
+        <v>3.967350816</v>
       </c>
       <c r="P13">
-        <v>13.982630064</v>
+        <v>14.066061984</v>
       </c>
       <c r="Q13">
-        <v>18.382630064</v>
+        <v>18.466061984</v>
       </c>
       <c r="R13">
         <v>0.1235955056179775</v>
       </c>
       <c r="S13">
-        <v>0.07263329285362724</v>
+        <v>0.06898394311929447</v>
       </c>
       <c r="T13">
         <v>0.593885472014005</v>
       </c>
       <c r="U13">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V13">
         <v>0.22</v>
       </c>
       <c r="W13">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         </is>
       </c>
       <c r="Y13">
-        <v>48.98926840550907</v>
+        <v>68.64545634599112</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -2351,13 +2351,13 @@
         <v>0.12</v>
       </c>
       <c r="B14">
-        <v>0.06649631130030685</v>
+        <v>0.06269927003959944</v>
       </c>
       <c r="C14">
-        <v>142.522625125995</v>
+        <v>142.6385189921091</v>
       </c>
       <c r="D14">
-        <v>100.174625125995</v>
+        <v>100.2905189921091</v>
       </c>
       <c r="E14">
         <v>-7.548000000000002</v>
@@ -2384,37 +2384,37 @@
         <v>18.3</v>
       </c>
       <c r="M14">
-        <v>0.4075104</v>
+        <v>0.2908224</v>
       </c>
       <c r="N14">
-        <v>17.8924896</v>
+        <v>18.0091776</v>
       </c>
       <c r="O14">
-        <v>3.936347712</v>
+        <v>3.962019072</v>
       </c>
       <c r="P14">
-        <v>13.956141888</v>
+        <v>14.047158528</v>
       </c>
       <c r="Q14">
-        <v>18.356141888</v>
+        <v>18.447158528</v>
       </c>
       <c r="R14">
         <v>0.1363636363636364</v>
       </c>
       <c r="S14">
-        <v>0.07314953556853052</v>
+        <v>0.06952607959045391</v>
       </c>
       <c r="T14">
         <v>0.5992800045673753</v>
       </c>
       <c r="U14">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V14">
         <v>0.22</v>
       </c>
       <c r="W14">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X14" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="Y14">
-        <v>44.90682937171665</v>
+        <v>62.92500165049185</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -2433,13 +2433,13 @@
         <v>0.13</v>
       </c>
       <c r="B15">
-        <v>0.06640133196088543</v>
+        <v>0.06261287070302679</v>
       </c>
       <c r="C15">
-        <v>141.1864052718065</v>
+        <v>141.2886928336125</v>
       </c>
       <c r="D15">
-        <v>100.3344052718065</v>
+        <v>100.4366928336126</v>
       </c>
       <c r="E15">
         <v>-6.052</v>
@@ -2466,37 +2466,37 @@
         <v>18.3</v>
       </c>
       <c r="M15">
-        <v>0.4414696</v>
+        <v>0.3150576</v>
       </c>
       <c r="N15">
-        <v>17.8585304</v>
+        <v>17.9849424</v>
       </c>
       <c r="O15">
-        <v>3.928876688</v>
+        <v>3.956687328</v>
       </c>
       <c r="P15">
-        <v>13.929653712</v>
+        <v>14.028255072</v>
       </c>
       <c r="Q15">
-        <v>18.329653712</v>
+        <v>18.428255072</v>
       </c>
       <c r="R15">
         <v>0.1494252873563219</v>
       </c>
       <c r="S15">
-        <v>0.07367764593205223</v>
+        <v>0.07008067896899632</v>
       </c>
       <c r="T15">
         <v>0.6047985493633516</v>
       </c>
       <c r="U15">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V15">
         <v>0.22</v>
       </c>
       <c r="W15">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X15" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         </is>
       </c>
       <c r="Y15">
-        <v>41.45245788158459</v>
+        <v>58.08461690814632</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -2515,13 +2515,13 @@
         <v>0.14</v>
       </c>
       <c r="B16">
-        <v>0.06630635262146405</v>
+        <v>0.06252647136645417</v>
       </c>
       <c r="C16">
-        <v>139.8506959357316</v>
+        <v>139.9392933950052</v>
       </c>
       <c r="D16">
-        <v>100.4946959357316</v>
+        <v>100.5832933950052</v>
       </c>
       <c r="E16">
         <v>-4.555999999999997</v>
@@ -2548,37 +2548,37 @@
         <v>18.3</v>
       </c>
       <c r="M16">
-        <v>0.4754288000000001</v>
+        <v>0.3392928</v>
       </c>
       <c r="N16">
-        <v>17.8245712</v>
+        <v>17.9607072</v>
       </c>
       <c r="O16">
-        <v>3.921405664</v>
+        <v>3.951355584</v>
       </c>
       <c r="P16">
-        <v>13.903165536</v>
+        <v>14.009351616</v>
       </c>
       <c r="Q16">
-        <v>18.303165536</v>
+        <v>18.409351616</v>
       </c>
       <c r="R16">
         <v>0.1627906976744186</v>
       </c>
       <c r="S16">
-        <v>0.07421803793193495</v>
+        <v>0.07064817600750485</v>
       </c>
       <c r="T16">
         <v>0.6104454324103974</v>
       </c>
       <c r="U16">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V16">
         <v>0.22</v>
       </c>
       <c r="W16">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X16" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         </is>
       </c>
       <c r="Y16">
-        <v>38.49156803289998</v>
+        <v>53.93571570042159</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -2597,13 +2597,13 @@
         <v>0.15</v>
       </c>
       <c r="B17">
-        <v>0.06621137328204266</v>
+        <v>0.06244007202988153</v>
       </c>
       <c r="C17">
-        <v>138.5154995684419</v>
+        <v>138.5903225475801</v>
       </c>
       <c r="D17">
-        <v>100.6554995684419</v>
+        <v>100.7303225475801</v>
       </c>
       <c r="E17">
         <v>-3.060000000000002</v>
@@ -2630,37 +2630,37 @@
         <v>18.3</v>
       </c>
       <c r="M17">
-        <v>0.509388</v>
+        <v>0.363528</v>
       </c>
       <c r="N17">
-        <v>17.790612</v>
+        <v>17.936472</v>
       </c>
       <c r="O17">
-        <v>3.91393464</v>
+        <v>3.946023840000001</v>
       </c>
       <c r="P17">
-        <v>13.87667736</v>
+        <v>13.99044816</v>
       </c>
       <c r="Q17">
-        <v>18.27667736</v>
+        <v>18.39044816</v>
       </c>
       <c r="R17">
         <v>0.1764705882352941</v>
       </c>
       <c r="S17">
-        <v>0.07477114503769725</v>
+        <v>0.07122902591750768</v>
       </c>
       <c r="T17">
         <v>0.6162251832938441</v>
       </c>
       <c r="U17">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V17">
         <v>0.22</v>
       </c>
       <c r="W17">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X17" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         </is>
       </c>
       <c r="Y17">
-        <v>35.92546349737332</v>
+        <v>50.34000132039349</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -2679,13 +2679,13 @@
         <v>0.16</v>
       </c>
       <c r="B18">
-        <v>0.06611639394262124</v>
+        <v>0.0623536726933089</v>
       </c>
       <c r="C18">
-        <v>137.1808186363197</v>
+        <v>137.2417821735874</v>
       </c>
       <c r="D18">
-        <v>100.8168186363197</v>
+        <v>100.8777821735874</v>
       </c>
       <c r="E18">
         <v>-1.564</v>
@@ -2712,37 +2712,37 @@
         <v>18.3</v>
       </c>
       <c r="M18">
-        <v>0.5433472</v>
+        <v>0.3877632</v>
       </c>
       <c r="N18">
-        <v>17.7566528</v>
+        <v>17.9122368</v>
       </c>
       <c r="O18">
-        <v>3.906463616</v>
+        <v>3.940692096000001</v>
       </c>
       <c r="P18">
-        <v>13.850189184</v>
+        <v>13.971544704</v>
       </c>
       <c r="Q18">
-        <v>18.250189184</v>
+        <v>18.371544704</v>
       </c>
       <c r="R18">
         <v>0.1904761904761905</v>
       </c>
       <c r="S18">
-        <v>0.07533742136026339</v>
+        <v>0.0718237055872725</v>
       </c>
       <c r="T18">
         <v>0.6221425472935633</v>
       </c>
       <c r="U18">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V18">
         <v>0.22</v>
       </c>
       <c r="W18">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X18" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         </is>
       </c>
       <c r="Y18">
-        <v>33.68012202878749</v>
+        <v>47.1937512378689</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0.17</v>
       </c>
       <c r="B19">
-        <v>0.06602141460319985</v>
+        <v>0.06226727335673626</v>
       </c>
       <c r="C19">
-        <v>135.846655621584</v>
+        <v>135.8936741663154</v>
       </c>
       <c r="D19">
-        <v>100.978655621584</v>
+        <v>101.0256741663154</v>
       </c>
       <c r="E19">
         <v>-0.06799999999999784</v>
@@ -2794,37 +2794,37 @@
         <v>18.3</v>
       </c>
       <c r="M19">
-        <v>0.5773064000000001</v>
+        <v>0.4119984</v>
       </c>
       <c r="N19">
-        <v>17.7226936</v>
+        <v>17.8880016</v>
       </c>
       <c r="O19">
-        <v>3.898992592</v>
+        <v>3.935360352</v>
       </c>
       <c r="P19">
-        <v>13.823701008</v>
+        <v>13.952641248</v>
       </c>
       <c r="Q19">
-        <v>18.223701008</v>
+        <v>18.352641248</v>
       </c>
       <c r="R19">
         <v>0.2048192771084338</v>
       </c>
       <c r="S19">
-        <v>0.07591734289542151</v>
+        <v>0.07243271488763406</v>
       </c>
       <c r="T19">
         <v>0.6282024983776133</v>
       </c>
       <c r="U19">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V19">
         <v>0.22</v>
       </c>
       <c r="W19">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X19" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="Y19">
-        <v>31.69893838003528</v>
+        <v>44.4176482238766</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -2843,13 +2843,13 @@
         <v>0.18</v>
       </c>
       <c r="B20">
-        <v>0.06592643526377844</v>
+        <v>0.06218087402016362</v>
       </c>
       <c r="C20">
-        <v>134.5130130224178</v>
+        <v>134.5460004301714</v>
       </c>
       <c r="D20">
-        <v>101.1410130224178</v>
+        <v>101.1740004301714</v>
       </c>
       <c r="E20">
         <v>1.427999999999997</v>
@@ -2876,37 +2876,37 @@
         <v>18.3</v>
       </c>
       <c r="M20">
-        <v>0.6112656</v>
+        <v>0.4362335999999999</v>
       </c>
       <c r="N20">
-        <v>17.6887344</v>
+        <v>17.8637664</v>
       </c>
       <c r="O20">
-        <v>3.891521568</v>
+        <v>3.930028608</v>
       </c>
       <c r="P20">
-        <v>13.797212832</v>
+        <v>13.933737792</v>
       </c>
       <c r="Q20">
-        <v>18.197212832</v>
+        <v>18.333737792</v>
       </c>
       <c r="R20">
         <v>0.2195121951219512</v>
       </c>
       <c r="S20">
-        <v>0.07651140885826639</v>
+        <v>0.07305657807337027</v>
       </c>
       <c r="T20">
         <v>0.6344102531466399</v>
       </c>
       <c r="U20">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V20">
         <v>0.22</v>
       </c>
       <c r="W20">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X20" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         </is>
       </c>
       <c r="Y20">
-        <v>29.9378862478111</v>
+        <v>41.9500011003279</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -2925,13 +2925,13 @@
         <v>0.19</v>
       </c>
       <c r="B21">
-        <v>0.06583145592435705</v>
+        <v>0.06209447468359099</v>
       </c>
       <c r="C21">
-        <v>133.1798933530967</v>
+        <v>133.1987628807632</v>
       </c>
       <c r="D21">
-        <v>101.3038933530967</v>
+        <v>101.3227628807632</v>
       </c>
       <c r="E21">
         <v>2.923999999999999</v>
@@ -2958,37 +2958,37 @@
         <v>18.3</v>
       </c>
       <c r="M21">
-        <v>0.6452248</v>
+        <v>0.4604688</v>
       </c>
       <c r="N21">
-        <v>17.6547752</v>
+        <v>17.8395312</v>
       </c>
       <c r="O21">
-        <v>3.884050544</v>
+        <v>3.924696864</v>
       </c>
       <c r="P21">
-        <v>13.770724656</v>
+        <v>13.914834336</v>
       </c>
       <c r="Q21">
-        <v>18.170724656</v>
+        <v>18.314834336</v>
       </c>
       <c r="R21">
         <v>0.2345679012345679</v>
       </c>
       <c r="S21">
-        <v>0.07712014311649018</v>
+        <v>0.07369584528838394</v>
       </c>
       <c r="T21">
         <v>0.6407712858111982</v>
       </c>
       <c r="U21">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V21">
         <v>0.22</v>
       </c>
       <c r="W21">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X21" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="Y21">
-        <v>28.36220802424209</v>
+        <v>39.7421063055738</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -3007,13 +3007,13 @@
         <v>0.2</v>
       </c>
       <c r="B22">
-        <v>0.06573647658493564</v>
+        <v>0.06200807534701835</v>
       </c>
       <c r="C22">
-        <v>131.8472991441186</v>
+        <v>131.8519634449818</v>
       </c>
       <c r="D22">
-        <v>101.4672991441186</v>
+        <v>101.4719634449819</v>
       </c>
       <c r="E22">
         <v>4.420000000000002</v>
@@ -3040,37 +3040,37 @@
         <v>18.3</v>
       </c>
       <c r="M22">
-        <v>0.6791840000000001</v>
+        <v>0.484704</v>
       </c>
       <c r="N22">
-        <v>17.620816</v>
+        <v>17.815296</v>
       </c>
       <c r="O22">
-        <v>3.87657952</v>
+        <v>3.91936512</v>
       </c>
       <c r="P22">
-        <v>13.74423648</v>
+        <v>13.89593088</v>
       </c>
       <c r="Q22">
-        <v>18.14423648</v>
+        <v>18.29593088</v>
       </c>
       <c r="R22">
         <v>0.25</v>
       </c>
       <c r="S22">
-        <v>0.07774409573116955</v>
+        <v>0.07435109418377293</v>
       </c>
       <c r="T22">
         <v>0.6472913442923703</v>
       </c>
       <c r="U22">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V22">
         <v>0.22</v>
       </c>
       <c r="W22">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X22" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         </is>
       </c>
       <c r="Y22">
-        <v>26.94409762302999</v>
+        <v>37.75500099029511</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -3089,13 +3089,13 @@
         <v>0.21</v>
       </c>
       <c r="B23">
-        <v>0.06564149724551424</v>
+        <v>0.06192167601044571</v>
       </c>
       <c r="C23">
-        <v>130.5152329423349</v>
+        <v>130.5056040610847</v>
       </c>
       <c r="D23">
-        <v>101.6312329423349</v>
+        <v>101.6216040610847</v>
       </c>
       <c r="E23">
         <v>5.915999999999997</v>
@@ -3122,37 +3122,37 @@
         <v>18.3</v>
       </c>
       <c r="M23">
-        <v>0.7131432</v>
+        <v>0.5089391999999999</v>
       </c>
       <c r="N23">
-        <v>17.5868568</v>
+        <v>17.7910608</v>
       </c>
       <c r="O23">
-        <v>3.869108496</v>
+        <v>3.914033376</v>
       </c>
       <c r="P23">
-        <v>13.717748304</v>
+        <v>13.877027424</v>
       </c>
       <c r="Q23">
-        <v>18.117748304</v>
+        <v>18.277027424</v>
       </c>
       <c r="R23">
         <v>0.2658227848101266</v>
       </c>
       <c r="S23">
-        <v>0.07838384461457498</v>
+        <v>0.07502293165879204</v>
       </c>
       <c r="T23">
         <v>0.6539764675452178</v>
       </c>
       <c r="U23">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V23">
         <v>0.22</v>
       </c>
       <c r="W23">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X23" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="Y23">
-        <v>25.66104535526665</v>
+        <v>35.95714380028106</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -3171,13 +3171,13 @@
         <v>0.22</v>
       </c>
       <c r="B24">
-        <v>0.06554651790609285</v>
+        <v>0.06183527667387308</v>
       </c>
       <c r="C24">
-        <v>129.1836973110828</v>
+        <v>129.1596866787793</v>
       </c>
       <c r="D24">
-        <v>101.7956973110828</v>
+        <v>101.7716866787793</v>
       </c>
       <c r="E24">
         <v>7.411999999999999</v>
@@ -3204,37 +3204,37 @@
         <v>18.3</v>
       </c>
       <c r="M24">
-        <v>0.7471024000000001</v>
+        <v>0.5331743999999999</v>
       </c>
       <c r="N24">
-        <v>17.5528976</v>
+        <v>17.7668256</v>
       </c>
       <c r="O24">
-        <v>3.861637472</v>
+        <v>3.908701632</v>
       </c>
       <c r="P24">
-        <v>13.691260128</v>
+        <v>13.858123968</v>
       </c>
       <c r="Q24">
-        <v>18.091260128</v>
+        <v>18.258123968</v>
       </c>
       <c r="R24">
         <v>0.282051282051282</v>
       </c>
       <c r="S24">
-        <v>0.07903999731550365</v>
+        <v>0.07571199573573471</v>
       </c>
       <c r="T24">
         <v>0.6608330042148048</v>
       </c>
       <c r="U24">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V24">
         <v>0.22</v>
       </c>
       <c r="W24">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X24" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="Y24">
-        <v>24.49463420275454</v>
+        <v>34.32272817299556</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -3253,13 +3253,13 @@
         <v>0.23</v>
       </c>
       <c r="B25">
-        <v>0.06545153856667146</v>
+        <v>0.06174887733730044</v>
       </c>
       <c r="C25">
-        <v>127.8526948303185</v>
+        <v>127.8142132593083</v>
       </c>
       <c r="D25">
-        <v>101.9606948303185</v>
+        <v>101.9222132593083</v>
       </c>
       <c r="E25">
         <v>8.908000000000001</v>
@@ -3286,37 +3286,37 @@
         <v>18.3</v>
       </c>
       <c r="M25">
-        <v>0.7810616</v>
+        <v>0.5574095999999999</v>
       </c>
       <c r="N25">
-        <v>17.5189384</v>
+        <v>17.7425904</v>
       </c>
       <c r="O25">
-        <v>3.854166448</v>
+        <v>3.903369888</v>
       </c>
       <c r="P25">
-        <v>13.664771952</v>
+        <v>13.839220512</v>
       </c>
       <c r="Q25">
-        <v>18.064771952</v>
+        <v>18.239220512</v>
       </c>
       <c r="R25">
         <v>0.2987012987012987</v>
       </c>
       <c r="S25">
-        <v>0.07971319294372917</v>
+        <v>0.07641895758090966</v>
       </c>
       <c r="T25">
         <v>0.6678676327459397</v>
       </c>
       <c r="U25">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V25">
         <v>0.22</v>
       </c>
       <c r="W25">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X25" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         </is>
       </c>
       <c r="Y25">
-        <v>23.4296501069826</v>
+        <v>32.83043564373488</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -3335,13 +3335,13 @@
         <v>0.24</v>
       </c>
       <c r="B26">
-        <v>0.06535655922725005</v>
+        <v>0.0616624780007278</v>
       </c>
       <c r="C26">
-        <v>126.522228096753</v>
+        <v>126.4691857755346</v>
       </c>
       <c r="D26">
-        <v>102.126228096753</v>
+        <v>102.0731857755346</v>
       </c>
       <c r="E26">
         <v>10.404</v>
@@ -3368,37 +3368,37 @@
         <v>18.3</v>
       </c>
       <c r="M26">
-        <v>0.8150208</v>
+        <v>0.5816448</v>
       </c>
       <c r="N26">
-        <v>17.4849792</v>
+        <v>17.7183552</v>
       </c>
       <c r="O26">
-        <v>3.846695424</v>
+        <v>3.898038144</v>
       </c>
       <c r="P26">
-        <v>13.638283776</v>
+        <v>13.820317056</v>
       </c>
       <c r="Q26">
-        <v>18.038283776</v>
+        <v>18.220317056</v>
       </c>
       <c r="R26">
         <v>0.3157894736842105</v>
       </c>
       <c r="S26">
-        <v>0.08040410424638164</v>
+        <v>0.07714452368516816</v>
       </c>
       <c r="T26">
         <v>0.6750873830805255</v>
       </c>
       <c r="U26">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V26">
         <v>0.22</v>
       </c>
       <c r="W26">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X26" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         </is>
       </c>
       <c r="Y26">
-        <v>22.45341468585833</v>
+        <v>31.46250082524593</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -3417,13 +3417,13 @@
         <v>0.25</v>
       </c>
       <c r="B27">
-        <v>0.06526157988782866</v>
+        <v>0.06157607866415517</v>
       </c>
       <c r="C27">
-        <v>125.1922997239872</v>
+        <v>125.1246062120277</v>
       </c>
       <c r="D27">
-        <v>102.2922997239872</v>
+        <v>102.2246062120277</v>
       </c>
       <c r="E27">
         <v>11.9</v>
@@ -3450,37 +3450,37 @@
         <v>18.3</v>
       </c>
       <c r="M27">
-        <v>0.8489800000000001</v>
+        <v>0.60588</v>
       </c>
       <c r="N27">
-        <v>17.45102</v>
+        <v>17.69412</v>
       </c>
       <c r="O27">
-        <v>3.8392244</v>
+        <v>3.8927064</v>
       </c>
       <c r="P27">
-        <v>13.6117956</v>
+        <v>13.8014136</v>
       </c>
       <c r="Q27">
-        <v>18.0117956</v>
+        <v>18.2014136</v>
       </c>
       <c r="R27">
         <v>0.3333333333333333</v>
       </c>
       <c r="S27">
-        <v>0.0811134398504382</v>
+        <v>0.07788943821887356</v>
       </c>
       <c r="T27">
         <v>0.6824996600907002</v>
       </c>
       <c r="U27">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V27">
         <v>0.22</v>
       </c>
       <c r="W27">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X27" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         </is>
       </c>
       <c r="Y27">
-        <v>21.55527809842399</v>
+        <v>30.20400079223609</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -3499,13 +3499,13 @@
         <v>0.26</v>
       </c>
       <c r="B28">
-        <v>0.06516660054840724</v>
+        <v>0.06148967932758254</v>
       </c>
       <c r="C28">
-        <v>123.8629123426503</v>
+        <v>123.7804765651508</v>
       </c>
       <c r="D28">
-        <v>102.4589123426503</v>
+        <v>102.3764765651508</v>
       </c>
       <c r="E28">
         <v>13.396</v>
@@ -3532,37 +3532,37 @@
         <v>18.3</v>
       </c>
       <c r="M28">
-        <v>0.8829392</v>
+        <v>0.6301152</v>
       </c>
       <c r="N28">
-        <v>17.4170608</v>
+        <v>17.6698848</v>
       </c>
       <c r="O28">
-        <v>3.831753376</v>
+        <v>3.887374656</v>
       </c>
       <c r="P28">
-        <v>13.585307424</v>
+        <v>13.782510144</v>
       </c>
       <c r="Q28">
-        <v>17.985307424</v>
+        <v>18.182510144</v>
       </c>
       <c r="R28">
         <v>0.3513513513513514</v>
       </c>
       <c r="S28">
-        <v>0.08184194668703682</v>
+        <v>0.07865448557781424</v>
       </c>
       <c r="T28">
         <v>0.6901122689119606</v>
       </c>
       <c r="U28">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V28">
         <v>0.22</v>
       </c>
       <c r="W28">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X28" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         </is>
       </c>
       <c r="Y28">
-        <v>20.7262289407923</v>
+        <v>29.04230845407317</v>
       </c>
       <c r="Z28">
         <v>0</v>
@@ -3581,13 +3581,13 @@
         <v>0.27</v>
       </c>
       <c r="B29">
-        <v>0.06507162120898584</v>
+        <v>0.06140327999100989</v>
       </c>
       <c r="C29">
-        <v>122.5340686005385</v>
+        <v>122.4367988431481</v>
       </c>
       <c r="D29">
-        <v>102.6260686005385</v>
+        <v>102.5287988431481</v>
       </c>
       <c r="E29">
         <v>14.892</v>
@@ -3614,37 +3614,37 @@
         <v>18.3</v>
       </c>
       <c r="M29">
-        <v>0.9168984000000001</v>
+        <v>0.6543504</v>
       </c>
       <c r="N29">
-        <v>17.3831016</v>
+        <v>17.6456496</v>
       </c>
       <c r="O29">
-        <v>3.824282352</v>
+        <v>3.882042912000001</v>
       </c>
       <c r="P29">
-        <v>13.558819248</v>
+        <v>13.763606688</v>
       </c>
       <c r="Q29">
-        <v>17.958819248</v>
+        <v>18.163606688</v>
       </c>
       <c r="R29">
         <v>0.3698630136986302</v>
       </c>
       <c r="S29">
-        <v>0.0825904126150491</v>
+        <v>0.07944049313836972</v>
       </c>
       <c r="T29">
         <v>0.6979334423584611</v>
       </c>
       <c r="U29">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V29">
         <v>0.22</v>
       </c>
       <c r="W29">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X29" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="Y29">
-        <v>19.95859083187406</v>
+        <v>27.9666674002186</v>
       </c>
       <c r="Z29">
         <v>0</v>
@@ -3663,13 +3663,13 @@
         <v>0.28</v>
       </c>
       <c r="B30">
-        <v>0.06497664186956444</v>
+        <v>0.06131688065443725</v>
       </c>
       <c r="C30">
-        <v>121.2057711627551</v>
+        <v>121.0935750662337</v>
       </c>
       <c r="D30">
-        <v>102.7937711627551</v>
+        <v>102.6815750662337</v>
       </c>
       <c r="E30">
         <v>16.38800000000001</v>
@@ -3696,37 +3696,37 @@
         <v>18.3</v>
       </c>
       <c r="M30">
-        <v>0.9508576000000002</v>
+        <v>0.6785856</v>
       </c>
       <c r="N30">
-        <v>17.3491424</v>
+        <v>17.6214144</v>
       </c>
       <c r="O30">
-        <v>3.816811328</v>
+        <v>3.876711168</v>
       </c>
       <c r="P30">
-        <v>13.532331072</v>
+        <v>13.744703232</v>
       </c>
       <c r="Q30">
-        <v>17.932331072</v>
+        <v>18.144703232</v>
       </c>
       <c r="R30">
         <v>0.388888888888889</v>
       </c>
       <c r="S30">
-        <v>0.08335966926328395</v>
+        <v>0.08024833424227397</v>
       </c>
       <c r="T30">
         <v>0.70597187062292</v>
       </c>
       <c r="U30">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V30">
         <v>0.22</v>
       </c>
       <c r="W30">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X30" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         </is>
       </c>
       <c r="Y30">
-        <v>19.24578401644999</v>
+        <v>26.96785785021079</v>
       </c>
       <c r="Z30">
         <v>0</v>
@@ -3745,13 +3745,13 @@
         <v>0.29</v>
       </c>
       <c r="B31">
-        <v>0.06488166253014305</v>
+        <v>0.06123048131786463</v>
       </c>
       <c r="C31">
-        <v>119.8780227118521</v>
+        <v>119.7508072666809</v>
       </c>
       <c r="D31">
-        <v>102.962022711852</v>
+        <v>102.8348072666809</v>
       </c>
       <c r="E31">
         <v>17.88399999999999</v>
@@ -3778,37 +3778,37 @@
         <v>18.3</v>
       </c>
       <c r="M31">
-        <v>0.9848167999999999</v>
+        <v>0.7028207999999998</v>
       </c>
       <c r="N31">
-        <v>17.3151832</v>
+        <v>17.5971792</v>
       </c>
       <c r="O31">
-        <v>3.809340304</v>
+        <v>3.871379424</v>
       </c>
       <c r="P31">
-        <v>13.505842896</v>
+        <v>13.725799776</v>
       </c>
       <c r="Q31">
-        <v>17.905842896</v>
+        <v>18.125799776</v>
       </c>
       <c r="R31">
         <v>0.4084507042253521</v>
       </c>
       <c r="S31">
-        <v>0.08415059511287754</v>
+        <v>0.08107893143361215</v>
       </c>
       <c r="T31">
         <v>0.7142367334863777</v>
       </c>
       <c r="U31">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V31">
         <v>0.22</v>
       </c>
       <c r="W31">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X31" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="Y31">
-        <v>18.58213629174482</v>
+        <v>26.03793171744491</v>
       </c>
       <c r="Z31">
         <v>0</v>
@@ -3827,13 +3827,13 @@
         <v>0.3</v>
       </c>
       <c r="B32">
-        <v>0.06478668319072164</v>
+        <v>0.06114408198129197</v>
       </c>
       <c r="C32">
-        <v>118.5508259479735</v>
+        <v>118.4084974889121</v>
       </c>
       <c r="D32">
-        <v>103.1308259479735</v>
+        <v>102.9884974889121</v>
       </c>
       <c r="E32">
         <v>19.38</v>
@@ -3860,37 +3860,37 @@
         <v>18.3</v>
       </c>
       <c r="M32">
-        <v>1.018776</v>
+        <v>0.7270559999999999</v>
       </c>
       <c r="N32">
-        <v>17.281224</v>
+        <v>17.572944</v>
       </c>
       <c r="O32">
-        <v>3.80186928</v>
+        <v>3.86604768</v>
       </c>
       <c r="P32">
-        <v>13.47935472</v>
+        <v>13.70689632</v>
       </c>
       <c r="Q32">
-        <v>17.87935472</v>
+        <v>18.10689632</v>
       </c>
       <c r="R32">
         <v>0.4285714285714286</v>
       </c>
       <c r="S32">
-        <v>0.08496411884388808</v>
+        <v>0.08193325997327426</v>
       </c>
       <c r="T32">
         <v>0.7227377352887913</v>
       </c>
       <c r="U32">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V32">
         <v>0.22</v>
       </c>
       <c r="W32">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X32" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         </is>
       </c>
       <c r="Y32">
-        <v>17.96273174868666</v>
+        <v>25.17000066019674</v>
       </c>
       <c r="Z32">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>0.31</v>
       </c>
       <c r="B33">
-        <v>0.06469170385130024</v>
+        <v>0.06105768264471936</v>
       </c>
       <c r="C33">
-        <v>117.2241835889996</v>
+        <v>117.0666477895898</v>
       </c>
       <c r="D33">
-        <v>103.3001835889996</v>
+        <v>103.1426477895898</v>
       </c>
       <c r="E33">
         <v>20.876</v>
@@ -3942,37 +3942,37 @@
         <v>18.3</v>
       </c>
       <c r="M33">
-        <v>1.0527352</v>
+        <v>0.7512911999999999</v>
       </c>
       <c r="N33">
-        <v>17.2472648</v>
+        <v>17.5487088</v>
       </c>
       <c r="O33">
-        <v>3.794398256</v>
+        <v>3.860715936</v>
       </c>
       <c r="P33">
-        <v>13.452866544</v>
+        <v>13.687992864</v>
       </c>
       <c r="Q33">
-        <v>17.852866544</v>
+        <v>18.087992864</v>
       </c>
       <c r="R33">
         <v>0.4492753623188406</v>
       </c>
       <c r="S33">
-        <v>0.08580122297289891</v>
+        <v>0.08281235165901356</v>
       </c>
       <c r="T33">
         <v>0.7314851429405503</v>
       </c>
       <c r="U33">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V33">
         <v>0.22</v>
       </c>
       <c r="W33">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X33" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="Y33">
-        <v>17.3832887890516</v>
+        <v>24.3580651550291</v>
       </c>
       <c r="Z33">
         <v>0</v>
@@ -3991,13 +3991,13 @@
         <v>0.32</v>
       </c>
       <c r="B34">
-        <v>0.06459672451187884</v>
+        <v>0.06097128330814672</v>
       </c>
       <c r="C34">
-        <v>115.898098370693</v>
+        <v>115.7252602377085</v>
       </c>
       <c r="D34">
-        <v>103.470098370693</v>
+        <v>103.2972602377085</v>
       </c>
       <c r="E34">
         <v>22.372</v>
@@ -4024,37 +4024,37 @@
         <v>18.3</v>
       </c>
       <c r="M34">
-        <v>1.0866944</v>
+        <v>0.7755263999999999</v>
       </c>
       <c r="N34">
-        <v>17.2133056</v>
+        <v>17.5244736</v>
       </c>
       <c r="O34">
-        <v>3.786927232</v>
+        <v>3.855384192</v>
       </c>
       <c r="P34">
-        <v>13.426378368</v>
+        <v>13.669089408</v>
       </c>
       <c r="Q34">
-        <v>17.826378368</v>
+        <v>18.069089408</v>
       </c>
       <c r="R34">
         <v>0.4705882352941177</v>
       </c>
       <c r="S34">
-        <v>0.08666294781158654</v>
+        <v>0.0837172989825687</v>
       </c>
       <c r="T34">
         <v>0.7404898272879492</v>
       </c>
       <c r="U34">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V34">
         <v>0.22</v>
       </c>
       <c r="W34">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X34" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         </is>
       </c>
       <c r="Y34">
-        <v>16.84006101439374</v>
+        <v>23.59687561893444</v>
       </c>
       <c r="Z34">
         <v>0</v>
@@ -4073,13 +4073,13 @@
         <v>0.33</v>
       </c>
       <c r="B35">
-        <v>0.06450174517245745</v>
+        <v>0.06088488397157407</v>
       </c>
       <c r="C35">
-        <v>114.5725730468455</v>
+        <v>114.384336914687</v>
       </c>
       <c r="D35">
-        <v>103.6405730468455</v>
+        <v>103.452336914687</v>
       </c>
       <c r="E35">
         <v>23.868</v>
@@ -4106,37 +4106,37 @@
         <v>18.3</v>
       </c>
       <c r="M35">
-        <v>1.1206536</v>
+        <v>0.7997616</v>
       </c>
       <c r="N35">
-        <v>17.1793464</v>
+        <v>17.5002384</v>
       </c>
       <c r="O35">
-        <v>3.779456208</v>
+        <v>3.850052448</v>
       </c>
       <c r="P35">
-        <v>13.399890192</v>
+        <v>13.650185952</v>
       </c>
       <c r="Q35">
-        <v>17.799890192</v>
+        <v>18.050185952</v>
       </c>
       <c r="R35">
         <v>0.4925373134328359</v>
       </c>
       <c r="S35">
-        <v>0.08755039577978724</v>
+        <v>0.08464925965906578</v>
       </c>
       <c r="T35">
         <v>0.7497633081830316</v>
       </c>
       <c r="U35">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V35">
         <v>0.22</v>
       </c>
       <c r="W35">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X35" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         </is>
       </c>
       <c r="Y35">
-        <v>16.32975613516969</v>
+        <v>22.88181878199704</v>
       </c>
       <c r="Z35">
         <v>0</v>
@@ -4155,13 +4155,13 @@
         <v>0.34</v>
       </c>
       <c r="B36">
-        <v>0.06440676583303603</v>
+        <v>0.06079848463500143</v>
       </c>
       <c r="C36">
-        <v>113.2476103894273</v>
+        <v>113.0438799144622</v>
       </c>
       <c r="D36">
-        <v>103.8116103894273</v>
+        <v>103.6078799144622</v>
       </c>
       <c r="E36">
         <v>25.364</v>
@@ -4188,37 +4188,37 @@
         <v>18.3</v>
       </c>
       <c r="M36">
-        <v>1.1546128</v>
+        <v>0.8239968</v>
       </c>
       <c r="N36">
-        <v>17.1453872</v>
+        <v>17.4760032</v>
       </c>
       <c r="O36">
-        <v>3.771985184</v>
+        <v>3.844720704</v>
       </c>
       <c r="P36">
-        <v>13.373402016</v>
+        <v>13.631282496</v>
       </c>
       <c r="Q36">
-        <v>17.773402016</v>
+        <v>18.031282496</v>
       </c>
       <c r="R36">
         <v>0.5151515151515152</v>
       </c>
       <c r="S36">
-        <v>0.08846473611066066</v>
+        <v>0.085609461568184</v>
       </c>
       <c r="T36">
         <v>0.7593178036506923</v>
       </c>
       <c r="U36">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V36">
         <v>0.22</v>
       </c>
       <c r="W36">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X36" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="Y36">
-        <v>15.84946919001764</v>
+        <v>22.2088241119383</v>
       </c>
       <c r="Z36">
         <v>0</v>
@@ -4237,13 +4237,13 @@
         <v>0.35</v>
       </c>
       <c r="B37">
-        <v>0.06431178649361466</v>
+        <v>0.0607120852984288</v>
       </c>
       <c r="C37">
-        <v>111.9232131887372</v>
+        <v>111.7038913435828</v>
       </c>
       <c r="D37">
-        <v>103.9832131887372</v>
+        <v>103.7638913435828</v>
       </c>
       <c r="E37">
         <v>26.86000000000001</v>
@@ -4270,37 +4270,37 @@
         <v>18.3</v>
       </c>
       <c r="M37">
-        <v>1.188572</v>
+        <v>0.8482320000000001</v>
       </c>
       <c r="N37">
-        <v>17.111428</v>
+        <v>17.451768</v>
       </c>
       <c r="O37">
-        <v>3.76451416</v>
+        <v>3.83938896</v>
       </c>
       <c r="P37">
-        <v>13.34691384</v>
+        <v>13.61237904</v>
       </c>
       <c r="Q37">
-        <v>17.74691384</v>
+        <v>18.01237904</v>
       </c>
       <c r="R37">
         <v>0.5384615384615385</v>
       </c>
       <c r="S37">
-        <v>0.0894072099901764</v>
+        <v>0.08659920815142894</v>
       </c>
       <c r="T37">
         <v>0.7691662835942812</v>
       </c>
       <c r="U37">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V37">
         <v>0.22</v>
       </c>
       <c r="W37">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X37" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="Y37">
-        <v>15.39662721315999</v>
+        <v>21.57428628016863</v>
       </c>
       <c r="Z37">
         <v>0</v>
@@ -4319,13 +4319,13 @@
         <v>0.36</v>
       </c>
       <c r="B38">
-        <v>0.06421680715419324</v>
+        <v>0.06062568596185616</v>
       </c>
       <c r="C38">
-        <v>110.5993842535542</v>
+        <v>110.3643733213048</v>
       </c>
       <c r="D38">
-        <v>104.1553842535542</v>
+        <v>103.9203733213048</v>
       </c>
       <c r="E38">
         <v>28.35599999999999</v>
@@ -4352,37 +4352,37 @@
         <v>18.3</v>
       </c>
       <c r="M38">
-        <v>1.2225312</v>
+        <v>0.8724671999999999</v>
       </c>
       <c r="N38">
-        <v>17.0774688</v>
+        <v>17.4275328</v>
       </c>
       <c r="O38">
-        <v>3.757043136000001</v>
+        <v>3.834057216</v>
       </c>
       <c r="P38">
-        <v>13.320425664</v>
+        <v>13.593475584</v>
       </c>
       <c r="Q38">
-        <v>17.720425664</v>
+        <v>17.993475584</v>
       </c>
       <c r="R38">
         <v>0.5625</v>
       </c>
       <c r="S38">
-        <v>0.09037913617842694</v>
+        <v>0.08761988431540026</v>
       </c>
       <c r="T38">
         <v>0.779322528536107</v>
       </c>
       <c r="U38">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V38">
         <v>0.22</v>
       </c>
       <c r="W38">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X38" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         </is>
       </c>
       <c r="Y38">
-        <v>14.96894312390555</v>
+        <v>20.97500055016395</v>
       </c>
       <c r="Z38">
         <v>0</v>
@@ -4401,13 +4401,13 @@
         <v>0.37</v>
       </c>
       <c r="B39">
-        <v>0.06412182781477184</v>
+        <v>0.06053928662528353</v>
       </c>
       <c r="C39">
-        <v>109.2761264112907</v>
+        <v>109.0253279796874</v>
       </c>
       <c r="D39">
-        <v>104.3281264112907</v>
+        <v>104.0773279796874</v>
       </c>
       <c r="E39">
         <v>29.852</v>
@@ -4434,37 +4434,37 @@
         <v>18.3</v>
       </c>
       <c r="M39">
-        <v>1.2564904</v>
+        <v>0.8967023999999999</v>
       </c>
       <c r="N39">
-        <v>17.0435096</v>
+        <v>17.4032976</v>
       </c>
       <c r="O39">
-        <v>3.749572112</v>
+        <v>3.828725472</v>
       </c>
       <c r="P39">
-        <v>13.293937488</v>
+        <v>13.574572128</v>
       </c>
       <c r="Q39">
-        <v>17.693937488</v>
+        <v>17.974572128</v>
       </c>
       <c r="R39">
         <v>0.5873015873015873</v>
       </c>
       <c r="S39">
-        <v>0.0913819171663045</v>
+        <v>0.08867296289727544</v>
       </c>
       <c r="T39">
         <v>0.7898011939522765</v>
       </c>
       <c r="U39">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V39">
         <v>0.22</v>
       </c>
       <c r="W39">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X39" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         </is>
       </c>
       <c r="Y39">
-        <v>14.56437709352972</v>
+        <v>20.40810864340277</v>
       </c>
       <c r="Z39">
         <v>0</v>
@@ -4483,13 +4483,13 @@
         <v>0.38</v>
       </c>
       <c r="B40">
-        <v>0.06402684847535044</v>
+        <v>0.0604528872887109</v>
       </c>
       <c r="C40">
-        <v>107.9534425081473</v>
+        <v>107.6867574636899</v>
       </c>
       <c r="D40">
-        <v>104.5014425081473</v>
+        <v>104.2347574636898</v>
       </c>
       <c r="E40">
         <v>31.348</v>
@@ -4516,37 +4516,37 @@
         <v>18.3</v>
       </c>
       <c r="M40">
-        <v>1.2904496</v>
+        <v>0.9209375999999999</v>
       </c>
       <c r="N40">
-        <v>17.0095504</v>
+        <v>17.3790624</v>
       </c>
       <c r="O40">
-        <v>3.742101088000001</v>
+        <v>3.823393728000001</v>
       </c>
       <c r="P40">
-        <v>13.267449312</v>
+        <v>13.555668672</v>
       </c>
       <c r="Q40">
-        <v>17.667449312</v>
+        <v>17.955668672</v>
       </c>
       <c r="R40">
         <v>0.6129032258064516</v>
       </c>
       <c r="S40">
-        <v>0.09241704592798458</v>
+        <v>0.08976001175598532</v>
       </c>
       <c r="T40">
         <v>0.8006178808334838</v>
       </c>
       <c r="U40">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V40">
         <v>0.22</v>
       </c>
       <c r="W40">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X40" t="inlineStr">
         <is>
@@ -4554,7 +4554,7 @@
         </is>
       </c>
       <c r="Y40">
-        <v>14.18110401212105</v>
+        <v>19.8710531527869</v>
       </c>
       <c r="Z40">
         <v>0</v>
@@ -4565,13 +4565,13 @@
         <v>0.39</v>
       </c>
       <c r="B41">
-        <v>0.06393186913592905</v>
+        <v>0.06036648795213826</v>
       </c>
       <c r="C41">
-        <v>106.6313354092694</v>
+        <v>106.3486639312689</v>
       </c>
       <c r="D41">
-        <v>104.6753354092694</v>
+        <v>104.3926639312689</v>
       </c>
       <c r="E41">
         <v>32.844</v>
@@ -4598,37 +4598,37 @@
         <v>18.3</v>
       </c>
       <c r="M41">
-        <v>1.3244088</v>
+        <v>0.9451727999999999</v>
       </c>
       <c r="N41">
-        <v>16.9755912</v>
+        <v>17.3548272</v>
       </c>
       <c r="O41">
-        <v>3.734630064</v>
+        <v>3.818061984000001</v>
       </c>
       <c r="P41">
-        <v>13.240961136</v>
+        <v>13.536765216</v>
       </c>
       <c r="Q41">
-        <v>17.640961136</v>
+        <v>17.936765216</v>
       </c>
       <c r="R41">
         <v>0.639344262295082</v>
       </c>
       <c r="S41">
-        <v>0.09348611333758861</v>
+        <v>0.09088270156088239</v>
       </c>
       <c r="T41">
         <v>0.8117892131862062</v>
       </c>
       <c r="U41">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V41">
         <v>0.22</v>
       </c>
       <c r="W41">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X41" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         </is>
       </c>
       <c r="Y41">
-        <v>13.8174859605282</v>
+        <v>19.36153896938211</v>
       </c>
       <c r="Z41">
         <v>0</v>
@@ -4647,13 +4647,13 @@
         <v>0.4</v>
       </c>
       <c r="B42">
-        <v>0.06383688979650763</v>
+        <v>0.06028008861556562</v>
       </c>
       <c r="C42">
-        <v>105.3098079989047</v>
+        <v>105.0110495534777</v>
       </c>
       <c r="D42">
-        <v>104.8498079989048</v>
+        <v>104.5510495534777</v>
       </c>
       <c r="E42">
         <v>34.34</v>
@@ -4680,37 +4680,37 @@
         <v>18.3</v>
       </c>
       <c r="M42">
-        <v>1.358368</v>
+        <v>0.969408</v>
       </c>
       <c r="N42">
-        <v>16.941632</v>
+        <v>17.330592</v>
       </c>
       <c r="O42">
-        <v>3.727159040000001</v>
+        <v>3.81273024</v>
       </c>
       <c r="P42">
-        <v>13.21447296</v>
+        <v>13.51786176</v>
       </c>
       <c r="Q42">
-        <v>17.61447296</v>
+        <v>17.91786176</v>
       </c>
       <c r="R42">
         <v>0.6666666666666667</v>
       </c>
       <c r="S42">
-        <v>0.09459081632751273</v>
+        <v>0.09204281435927604</v>
       </c>
       <c r="T42">
         <v>0.8233329232840192</v>
       </c>
       <c r="U42">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V42">
         <v>0.22</v>
       </c>
       <c r="W42">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X42" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         </is>
       </c>
       <c r="Y42">
-        <v>13.47204881151499</v>
+        <v>18.87750049514755</v>
       </c>
       <c r="Z42">
         <v>0</v>
@@ -4729,13 +4729,13 @@
         <v>0.41</v>
       </c>
       <c r="B43">
-        <v>0.06425359045708624</v>
+        <v>0.06019368927899298</v>
       </c>
       <c r="C43">
-        <v>103.0526387767759</v>
+        <v>103.6739165145652</v>
       </c>
       <c r="D43">
-        <v>104.0886387767759</v>
+        <v>104.7099165145652</v>
       </c>
       <c r="E43">
         <v>35.83600000000001</v>
@@ -4762,45 +4762,45 @@
         <v>18.3</v>
       </c>
       <c r="M43">
-        <v>1.4904648</v>
+        <v>0.9936432000000001</v>
       </c>
       <c r="N43">
-        <v>16.8095352</v>
+        <v>17.3063568</v>
       </c>
       <c r="O43">
-        <v>3.698097744</v>
+        <v>3.807398496</v>
       </c>
       <c r="P43">
-        <v>13.111437456</v>
+        <v>13.498958304</v>
       </c>
       <c r="Q43">
-        <v>17.511437456</v>
+        <v>17.898958304</v>
       </c>
       <c r="R43">
         <v>0.6949152542372882</v>
       </c>
       <c r="S43">
-        <v>0.09573296687641736</v>
+        <v>0.09324225301524235</v>
       </c>
       <c r="T43">
         <v>0.8352679455885378</v>
       </c>
       <c r="U43">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V43">
         <v>0.22</v>
       </c>
       <c r="W43">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y43">
-        <v>12.27804910253499</v>
+        <v>18.41707365380249</v>
       </c>
       <c r="Z43">
         <v>0</v>
@@ -4811,13 +4811,13 @@
         <v>0.42</v>
       </c>
       <c r="B44">
-        <v>0.06417109111766485</v>
+        <v>0.06010728994242036</v>
       </c>
       <c r="C44">
-        <v>101.7064581033513</v>
+        <v>102.3372670120766</v>
       </c>
       <c r="D44">
-        <v>104.2384581033513</v>
+        <v>104.8692670120766</v>
       </c>
       <c r="E44">
         <v>37.33199999999999</v>
@@ -4844,45 +4844,45 @@
         <v>18.3</v>
       </c>
       <c r="M44">
-        <v>1.5268176</v>
+        <v>1.0178784</v>
       </c>
       <c r="N44">
-        <v>16.7731824</v>
+        <v>17.2821216</v>
       </c>
       <c r="O44">
-        <v>3.690100128</v>
+        <v>3.802066752</v>
       </c>
       <c r="P44">
-        <v>13.083082272</v>
+        <v>13.480054848</v>
       </c>
       <c r="Q44">
-        <v>17.483082272</v>
+        <v>17.880054848</v>
       </c>
       <c r="R44">
         <v>0.7241379310344827</v>
       </c>
       <c r="S44">
-        <v>0.09691450192700835</v>
+        <v>0.09448305162486267</v>
       </c>
       <c r="T44">
         <v>0.8476145203863156</v>
       </c>
       <c r="U44">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V44">
         <v>0.22</v>
       </c>
       <c r="W44">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y44">
-        <v>11.98571460009368</v>
+        <v>17.97857190014053</v>
       </c>
       <c r="Z44">
         <v>0</v>
@@ -4893,13 +4893,13 @@
         <v>0.43</v>
       </c>
       <c r="B45">
-        <v>0.06408859177824344</v>
+        <v>0.06002089060584772</v>
       </c>
       <c r="C45">
-        <v>100.360709334594</v>
+        <v>101.0011032569545</v>
       </c>
       <c r="D45">
-        <v>104.388709334594</v>
+        <v>105.0291032569545</v>
       </c>
       <c r="E45">
         <v>38.828</v>
@@ -4926,45 +4926,45 @@
         <v>18.3</v>
       </c>
       <c r="M45">
-        <v>1.5631704</v>
+        <v>1.0421136</v>
       </c>
       <c r="N45">
-        <v>16.7368296</v>
+        <v>17.2578864</v>
       </c>
       <c r="O45">
-        <v>3.682102512</v>
+        <v>3.796735008</v>
       </c>
       <c r="P45">
-        <v>13.054727088</v>
+        <v>13.461151392</v>
       </c>
       <c r="Q45">
-        <v>17.454727088</v>
+        <v>17.861151392</v>
       </c>
       <c r="R45">
         <v>0.7543859649122806</v>
       </c>
       <c r="S45">
-        <v>0.09813749434779551</v>
+        <v>0.09576738702780301</v>
       </c>
       <c r="T45">
         <v>0.8603943083348926</v>
       </c>
       <c r="U45">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V45">
         <v>0.22</v>
       </c>
       <c r="W45">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y45">
-        <v>11.7069770512543</v>
+        <v>17.56046557688144</v>
       </c>
       <c r="Z45">
         <v>0</v>
@@ -4975,13 +4975,13 @@
         <v>0.44</v>
       </c>
       <c r="B46">
-        <v>0.06400609243882205</v>
+        <v>0.05993449126927508</v>
       </c>
       <c r="C46">
-        <v>99.01539434086591</v>
+        <v>99.66542747364146</v>
       </c>
       <c r="D46">
-        <v>104.5393943408659</v>
+        <v>105.1894274736415</v>
       </c>
       <c r="E46">
         <v>40.324</v>
@@ -5008,45 +5008,45 @@
         <v>18.3</v>
       </c>
       <c r="M46">
-        <v>1.5995232</v>
+        <v>1.0663488</v>
       </c>
       <c r="N46">
-        <v>16.7004768</v>
+        <v>17.2336512</v>
       </c>
       <c r="O46">
-        <v>3.674104896</v>
+        <v>3.791403264</v>
       </c>
       <c r="P46">
-        <v>13.026371904</v>
+        <v>13.442247936</v>
       </c>
       <c r="Q46">
-        <v>17.426371904</v>
+        <v>17.842247936</v>
       </c>
       <c r="R46">
         <v>0.7857142857142857</v>
       </c>
       <c r="S46">
-        <v>0.09940416506932509</v>
+        <v>0.09709759155227693</v>
       </c>
       <c r="T46">
         <v>0.8736305172816332</v>
       </c>
       <c r="U46">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V46">
         <v>0.22</v>
       </c>
       <c r="W46">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y46">
-        <v>11.44090939099852</v>
+        <v>17.16136408649778</v>
       </c>
       <c r="Z46">
         <v>0</v>
@@ -5057,13 +5057,13 @@
         <v>0.45</v>
       </c>
       <c r="B47">
-        <v>0.06392359309940064</v>
+        <v>0.05984809193270244</v>
       </c>
       <c r="C47">
-        <v>97.67051500334412</v>
+        <v>98.3302419001829</v>
       </c>
       <c r="D47">
-        <v>104.6905150033441</v>
+        <v>105.3502419001829</v>
       </c>
       <c r="E47">
         <v>41.81999999999999</v>
@@ -5090,45 +5090,45 @@
         <v>18.3</v>
       </c>
       <c r="M47">
-        <v>1.635876</v>
+        <v>1.090584</v>
       </c>
       <c r="N47">
-        <v>16.664124</v>
+        <v>17.209416</v>
       </c>
       <c r="O47">
-        <v>3.66610728</v>
+        <v>3.78607152</v>
       </c>
       <c r="P47">
-        <v>12.99801672</v>
+        <v>13.42334448</v>
       </c>
       <c r="Q47">
-        <v>17.39801672</v>
+        <v>17.82334448</v>
       </c>
       <c r="R47">
         <v>0.8181818181818181</v>
       </c>
       <c r="S47">
-        <v>0.1007168965443648</v>
+        <v>0.09847616715036807</v>
       </c>
       <c r="T47">
         <v>0.887348042917346</v>
       </c>
       <c r="U47">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V47">
         <v>0.22</v>
       </c>
       <c r="W47">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y47">
-        <v>11.18666696008744</v>
+        <v>16.78000044013116</v>
       </c>
       <c r="Z47">
         <v>0</v>
@@ -5139,13 +5139,13 @@
         <v>0.46</v>
       </c>
       <c r="B48">
-        <v>0.06384109375997925</v>
+        <v>0.05976169259612981</v>
       </c>
       <c r="C48">
-        <v>96.32607321409901</v>
+        <v>96.99554878833138</v>
       </c>
       <c r="D48">
-        <v>104.842073214099</v>
+        <v>105.5115487883314</v>
       </c>
       <c r="E48">
         <v>43.316</v>
@@ -5172,45 +5172,45 @@
         <v>18.3</v>
       </c>
       <c r="M48">
-        <v>1.6722288</v>
+        <v>1.1148192</v>
       </c>
       <c r="N48">
-        <v>16.6277712</v>
+        <v>17.1851808</v>
       </c>
       <c r="O48">
-        <v>3.658109664</v>
+        <v>3.780739776</v>
       </c>
       <c r="P48">
-        <v>12.969661536</v>
+        <v>13.404441024</v>
       </c>
       <c r="Q48">
-        <v>17.369661536</v>
+        <v>17.804441024</v>
       </c>
       <c r="R48">
         <v>0.8518518518518519</v>
       </c>
       <c r="S48">
-        <v>0.1020782477036653</v>
+        <v>0.09990580110394408</v>
       </c>
       <c r="T48">
         <v>0.9015736250580854</v>
       </c>
       <c r="U48">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V48">
         <v>0.22</v>
       </c>
       <c r="W48">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y48">
-        <v>10.94347854791162</v>
+        <v>16.41521782186744</v>
       </c>
       <c r="Z48">
         <v>0</v>
@@ -5221,13 +5221,13 @@
         <v>0.47</v>
       </c>
       <c r="B49">
-        <v>0.06375859442055785</v>
+        <v>0.05967529325955718</v>
       </c>
       <c r="C49">
-        <v>94.98207087617335</v>
+        <v>95.66135040365172</v>
       </c>
       <c r="D49">
-        <v>104.9940708761734</v>
+        <v>105.6733504036517</v>
       </c>
       <c r="E49">
         <v>44.812</v>
@@ -5254,45 +5254,45 @@
         <v>18.3</v>
       </c>
       <c r="M49">
-        <v>1.7085816</v>
+        <v>1.1390544</v>
       </c>
       <c r="N49">
-        <v>16.5914184</v>
+        <v>17.1609456</v>
       </c>
       <c r="O49">
-        <v>3.650112048</v>
+        <v>3.775408032000001</v>
       </c>
       <c r="P49">
-        <v>12.941306352</v>
+        <v>13.385537568</v>
       </c>
       <c r="Q49">
-        <v>17.341306352</v>
+        <v>17.785537568</v>
       </c>
       <c r="R49">
         <v>0.8867924528301887</v>
       </c>
       <c r="S49">
-        <v>0.1034909706048261</v>
+        <v>0.1013893835085984</v>
       </c>
       <c r="T49">
         <v>0.91633602161923</v>
       </c>
       <c r="U49">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V49">
         <v>0.22</v>
       </c>
       <c r="W49">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y49">
-        <v>10.71063857880712</v>
+        <v>16.06595786821069</v>
       </c>
       <c r="Z49">
         <v>0</v>
@@ -5303,13 +5303,13 @@
         <v>0.48</v>
       </c>
       <c r="B50">
-        <v>0.06367609508113645</v>
+        <v>0.05958889392298453</v>
       </c>
       <c r="C50">
-        <v>93.63850990366183</v>
+        <v>94.32764902562701</v>
       </c>
       <c r="D50">
-        <v>105.1465099036618</v>
+        <v>105.835649025627</v>
       </c>
       <c r="E50">
         <v>46.30799999999999</v>
@@ -5336,45 +5336,45 @@
         <v>18.3</v>
       </c>
       <c r="M50">
-        <v>1.7449344</v>
+        <v>1.1632896</v>
       </c>
       <c r="N50">
-        <v>16.5550656</v>
+        <v>17.1367104</v>
       </c>
       <c r="O50">
-        <v>3.642114432</v>
+        <v>3.770076288</v>
       </c>
       <c r="P50">
-        <v>12.912951168</v>
+        <v>13.366634112</v>
       </c>
       <c r="Q50">
-        <v>17.312951168</v>
+        <v>17.766634112</v>
       </c>
       <c r="R50">
         <v>0.923076923076923</v>
       </c>
       <c r="S50">
-        <v>0.1049580290021855</v>
+        <v>0.1029300267749702</v>
       </c>
       <c r="T50">
         <v>0.9316662026634954</v>
       </c>
       <c r="U50">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V50">
         <v>0.22</v>
       </c>
       <c r="W50">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y50">
-        <v>10.48750027508197</v>
+        <v>15.73125041262296</v>
       </c>
       <c r="Z50">
         <v>0</v>
@@ -5385,13 +5385,13 @@
         <v>0.49</v>
       </c>
       <c r="B51">
-        <v>0.06443443574171505</v>
+        <v>0.05950249458641189</v>
       </c>
       <c r="C51">
-        <v>90.75772459449314</v>
+        <v>92.99444694776562</v>
       </c>
       <c r="D51">
-        <v>103.7617245944931</v>
+        <v>105.9984469477656</v>
       </c>
       <c r="E51">
         <v>47.804</v>
@@ -5418,45 +5418,45 @@
         <v>18.3</v>
       </c>
       <c r="M51">
-        <v>1.942556</v>
+        <v>1.1875248</v>
       </c>
       <c r="N51">
-        <v>16.357444</v>
+        <v>17.1124752</v>
       </c>
       <c r="O51">
-        <v>3.59863768</v>
+        <v>3.764744544</v>
       </c>
       <c r="P51">
-        <v>12.75880632</v>
+        <v>13.347730656</v>
       </c>
       <c r="Q51">
-        <v>17.15880632</v>
+        <v>17.747730656</v>
       </c>
       <c r="R51">
         <v>0.9607843137254901</v>
       </c>
       <c r="S51">
-        <v>0.1064826191014021</v>
+        <v>0.104531087424337</v>
       </c>
       <c r="T51">
         <v>0.9475975672781243</v>
       </c>
       <c r="U51">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V51">
         <v>0.22</v>
       </c>
       <c r="W51">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y51">
-        <v>9.420577836623499</v>
+        <v>15.41020448583474</v>
       </c>
       <c r="Z51">
         <v>0</v>
@@ -5467,13 +5467,13 @@
         <v>0.5</v>
       </c>
       <c r="B52">
-        <v>0.06436909640229364</v>
+        <v>0.05941609524983926</v>
       </c>
       <c r="C52">
-        <v>89.37960137264021</v>
+        <v>91.66174647770943</v>
       </c>
       <c r="D52">
-        <v>103.8796013726402</v>
+        <v>106.1617464777094</v>
       </c>
       <c r="E52">
         <v>49.3</v>
@@ -5500,45 +5500,45 @@
         <v>18.3</v>
       </c>
       <c r="M52">
-        <v>1.9822</v>
+        <v>1.21176</v>
       </c>
       <c r="N52">
-        <v>16.3178</v>
+        <v>17.08824</v>
       </c>
       <c r="O52">
-        <v>3.589916000000001</v>
+        <v>3.7594128</v>
       </c>
       <c r="P52">
-        <v>12.727884</v>
+        <v>13.3288272</v>
       </c>
       <c r="Q52">
-        <v>17.127884</v>
+        <v>17.7288272</v>
       </c>
       <c r="R52">
         <v>1</v>
       </c>
       <c r="S52">
-        <v>0.1080681928045873</v>
+        <v>0.1061961904996785</v>
       </c>
       <c r="T52">
         <v>0.9641661864773383</v>
       </c>
       <c r="U52">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V52">
         <v>0.22</v>
       </c>
       <c r="W52">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y52">
-        <v>9.232166279891031</v>
+        <v>15.10200039611804</v>
       </c>
       <c r="Z52">
         <v>0</v>
@@ -5549,13 +5549,13 @@
         <v>0.51</v>
       </c>
       <c r="B53">
-        <v>0.06430375706287225</v>
+        <v>0.05932969591326663</v>
       </c>
       <c r="C53">
-        <v>88.00174627928919</v>
+        <v>90.32954993734251</v>
       </c>
       <c r="D53">
-        <v>103.9977462792892</v>
+        <v>106.3255499373425</v>
       </c>
       <c r="E53">
         <v>50.79599999999999</v>
@@ -5582,45 +5582,45 @@
         <v>18.3</v>
       </c>
       <c r="M53">
-        <v>2.021844</v>
+        <v>1.2359952</v>
       </c>
       <c r="N53">
-        <v>16.278156</v>
+        <v>17.0640048</v>
       </c>
       <c r="O53">
-        <v>3.58119432</v>
+        <v>3.754081056</v>
       </c>
       <c r="P53">
-        <v>12.69696168</v>
+        <v>13.309923744</v>
       </c>
       <c r="Q53">
-        <v>17.09696168</v>
+        <v>17.709923744</v>
       </c>
       <c r="R53">
         <v>1.040816326530612</v>
       </c>
       <c r="S53">
-        <v>0.1097184838017801</v>
+        <v>0.1079292569658503</v>
       </c>
       <c r="T53">
         <v>0.9814110758479488</v>
       </c>
       <c r="U53">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V53">
         <v>0.22</v>
       </c>
       <c r="W53">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y53">
-        <v>9.051143411657872</v>
+        <v>14.8058827412922</v>
       </c>
       <c r="Z53">
         <v>0</v>
@@ -5631,13 +5631,13 @@
         <v>0.52</v>
       </c>
       <c r="B54">
-        <v>0.06423841772345085</v>
+        <v>0.05924329657669399</v>
       </c>
       <c r="C54">
-        <v>86.62416023032989</v>
+        <v>88.99785966290162</v>
       </c>
       <c r="D54">
-        <v>104.1161602303299</v>
+        <v>106.4898596629016</v>
       </c>
       <c r="E54">
         <v>52.292</v>
@@ -5664,45 +5664,45 @@
         <v>18.3</v>
       </c>
       <c r="M54">
-        <v>2.061488</v>
+        <v>1.2602304</v>
       </c>
       <c r="N54">
-        <v>16.238512</v>
+        <v>17.0397696</v>
       </c>
       <c r="O54">
-        <v>3.57247264</v>
+        <v>3.748749312</v>
       </c>
       <c r="P54">
-        <v>12.66603936</v>
+        <v>13.291020288</v>
       </c>
       <c r="Q54">
-        <v>17.06603936</v>
+        <v>17.691020288</v>
       </c>
       <c r="R54">
         <v>1.083333333333333</v>
       </c>
       <c r="S54">
-        <v>0.1114375369238559</v>
+        <v>0.1097345345347791</v>
       </c>
       <c r="T54">
         <v>0.9993745022756682</v>
       </c>
       <c r="U54">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V54">
         <v>0.22</v>
       </c>
       <c r="W54">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y54">
-        <v>8.877082961433683</v>
+        <v>14.52115422703658</v>
       </c>
       <c r="Z54">
         <v>0</v>
@@ -5713,13 +5713,13 @@
         <v>0.53</v>
       </c>
       <c r="B55">
-        <v>0.06417307838402946</v>
+        <v>0.05915689724012135</v>
       </c>
       <c r="C55">
-        <v>85.24684414582812</v>
+        <v>87.66667800508689</v>
       </c>
       <c r="D55">
-        <v>104.2348441458281</v>
+        <v>106.6546780050869</v>
       </c>
       <c r="E55">
         <v>53.788</v>
@@ -5746,45 +5746,45 @@
         <v>18.3</v>
       </c>
       <c r="M55">
-        <v>2.101132</v>
+        <v>1.2844656</v>
       </c>
       <c r="N55">
-        <v>16.198868</v>
+        <v>17.0155344</v>
       </c>
       <c r="O55">
-        <v>3.56375096</v>
+        <v>3.743417568</v>
       </c>
       <c r="P55">
-        <v>12.63511704</v>
+        <v>13.272116832</v>
       </c>
       <c r="Q55">
-        <v>17.03511704</v>
+        <v>17.672116832</v>
       </c>
       <c r="R55">
         <v>1.127659574468085</v>
       </c>
       <c r="S55">
-        <v>0.1132297412426159</v>
+        <v>0.1116166324257901</v>
       </c>
       <c r="T55">
         <v>1.018102329827971</v>
       </c>
       <c r="U55">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V55">
         <v>0.22</v>
       </c>
       <c r="W55">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y55">
-        <v>8.709590830085876</v>
+        <v>14.24717018501702</v>
       </c>
       <c r="Z55">
         <v>0</v>
@@ -5795,13 +5795,13 @@
         <v>0.54</v>
       </c>
       <c r="B56">
-        <v>0.06410773904460804</v>
+        <v>0.05907049790354871</v>
       </c>
       <c r="C56">
-        <v>83.86979895004977</v>
+        <v>86.33600732917414</v>
       </c>
       <c r="D56">
-        <v>104.3537989500498</v>
+        <v>106.8200073291742</v>
       </c>
       <c r="E56">
         <v>55.28400000000001</v>
@@ -5828,45 +5828,45 @@
         <v>18.3</v>
       </c>
       <c r="M56">
-        <v>2.140776</v>
+        <v>1.3087008</v>
       </c>
       <c r="N56">
-        <v>16.159224</v>
+        <v>16.9912992</v>
       </c>
       <c r="O56">
-        <v>3.55502928</v>
+        <v>3.738085824</v>
       </c>
       <c r="P56">
-        <v>12.60419472</v>
+        <v>13.253213376</v>
       </c>
       <c r="Q56">
-        <v>17.00419472</v>
+        <v>17.653213376</v>
       </c>
       <c r="R56">
         <v>1.173913043478261</v>
       </c>
       <c r="S56">
-        <v>0.1150998674882784</v>
+        <v>0.1135805606598885</v>
       </c>
       <c r="T56">
         <v>1.037644410752113</v>
       </c>
       <c r="U56">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V56">
         <v>0.22</v>
       </c>
       <c r="W56">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y56">
-        <v>8.548302111010212</v>
+        <v>13.9833337001093</v>
       </c>
       <c r="Z56">
         <v>0</v>
@@ -5877,13 +5877,13 @@
         <v>0.55</v>
       </c>
       <c r="B57">
-        <v>0.06404239970518665</v>
+        <v>0.05967049856697608</v>
       </c>
       <c r="C57">
-        <v>82.49302557148465</v>
+        <v>83.70234404680204</v>
       </c>
       <c r="D57">
-        <v>104.4730255714846</v>
+        <v>105.682344046802</v>
       </c>
       <c r="E57">
         <v>56.78</v>
@@ -5910,45 +5910,45 @@
         <v>18.3</v>
       </c>
       <c r="M57">
-        <v>2.18042</v>
+        <v>1.464584</v>
       </c>
       <c r="N57">
-        <v>16.11958</v>
+        <v>16.835416</v>
       </c>
       <c r="O57">
-        <v>3.5463076</v>
+        <v>3.703791520000001</v>
       </c>
       <c r="P57">
-        <v>12.5732724</v>
+        <v>13.13162448</v>
       </c>
       <c r="Q57">
-        <v>16.9732724</v>
+        <v>17.53162448</v>
       </c>
       <c r="R57">
         <v>1.222222222222223</v>
       </c>
       <c r="S57">
-        <v>0.1170531104559703</v>
+        <v>0.1156317745932802</v>
       </c>
       <c r="T57">
         <v>1.058055028606218</v>
       </c>
       <c r="U57">
-        <v>0.0265</v>
+        <v>0.0178</v>
       </c>
       <c r="V57">
         <v>0.22</v>
       </c>
       <c r="W57">
-        <v>0.02067</v>
+        <v>0.013884</v>
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y57">
-        <v>8.392878436264571</v>
+        <v>12.49501564949501</v>
       </c>
       <c r="Z57">
         <v>0</v>
@@ -5959,13 +5959,13 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B58">
-        <v>0.06397706036576525</v>
+        <v>0.05959657923040344</v>
       </c>
       <c r="C58">
-        <v>81.11652494287071</v>
+        <v>82.34519220335318</v>
       </c>
       <c r="D58">
-        <v>104.5925249428707</v>
+        <v>105.8211922033532</v>
       </c>
       <c r="E58">
         <v>58.27600000000001</v>
@@ -5992,45 +5992,45 @@
         <v>18.3</v>
       </c>
       <c r="M58">
-        <v>2.220064000000001</v>
+        <v>1.4912128</v>
       </c>
       <c r="N58">
-        <v>16.079936</v>
+        <v>16.8087872</v>
       </c>
       <c r="O58">
-        <v>3.53758592</v>
+        <v>3.697933184</v>
       </c>
       <c r="P58">
-        <v>12.54235008</v>
+        <v>13.110854016</v>
       </c>
       <c r="Q58">
-        <v>16.94235008</v>
+        <v>17.510854016</v>
       </c>
       <c r="R58">
         <v>1.272727272727273</v>
       </c>
       <c r="S58">
-        <v>0.119095137194921</v>
+        <v>0.1177762255236442</v>
       </c>
       <c r="T58">
         <v>1.079393401817327</v>
       </c>
       <c r="U58">
-        <v>0.0265</v>
+        <v>0.0178</v>
       </c>
       <c r="V58">
         <v>0.22</v>
       </c>
       <c r="W58">
-        <v>0.02067</v>
+        <v>0.013884</v>
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y58">
-        <v>8.243005607045561</v>
+        <v>12.27189037003974</v>
       </c>
       <c r="Z58">
         <v>0</v>
@@ -6041,13 +6041,13 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="B59">
-        <v>0.06391172102634383</v>
+        <v>0.05952265989383081</v>
       </c>
       <c r="C59">
-        <v>79.74029800121848</v>
+        <v>80.9884056843692</v>
       </c>
       <c r="D59">
-        <v>104.7122980012185</v>
+        <v>105.9604056843692</v>
       </c>
       <c r="E59">
         <v>59.77200000000001</v>
@@ -6074,45 +6074,45 @@
         <v>18.3</v>
       </c>
       <c r="M59">
-        <v>2.259708</v>
+        <v>1.5178416</v>
       </c>
       <c r="N59">
-        <v>16.040292</v>
+        <v>16.7821584</v>
       </c>
       <c r="O59">
-        <v>3.52886424</v>
+        <v>3.692074848</v>
       </c>
       <c r="P59">
-        <v>12.51142776</v>
+        <v>13.090083552</v>
       </c>
       <c r="Q59">
-        <v>16.91142776</v>
+        <v>17.490083552</v>
       </c>
       <c r="R59">
         <v>1.325581395348838</v>
       </c>
       <c r="S59">
-        <v>0.1212321419217299</v>
+        <v>0.1200204183577461</v>
       </c>
       <c r="T59">
         <v>1.101724257503371</v>
       </c>
       <c r="U59">
-        <v>0.0265</v>
+        <v>0.0178</v>
       </c>
       <c r="V59">
         <v>0.22</v>
       </c>
       <c r="W59">
-        <v>0.02067</v>
+        <v>0.013884</v>
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y59">
-        <v>8.098391473588624</v>
+        <v>12.05659404775834</v>
       </c>
       <c r="Z59">
         <v>0</v>
@@ -6123,13 +6123,13 @@
         <v>0.58</v>
       </c>
       <c r="B60">
-        <v>0.06384638168692244</v>
+        <v>0.05944874055725817</v>
       </c>
       <c r="C60">
-        <v>78.36434568783527</v>
+        <v>79.63198593356144</v>
       </c>
       <c r="D60">
-        <v>104.8323456878353</v>
+        <v>106.0999859335614</v>
       </c>
       <c r="E60">
         <v>61.26799999999999</v>
@@ -6156,45 +6156,45 @@
         <v>18.3</v>
       </c>
       <c r="M60">
-        <v>2.299352</v>
+        <v>1.5444704</v>
       </c>
       <c r="N60">
-        <v>16.000648</v>
+        <v>16.7555296</v>
       </c>
       <c r="O60">
-        <v>3.52014256</v>
+        <v>3.686216512000001</v>
       </c>
       <c r="P60">
-        <v>12.48050544</v>
+        <v>13.069313088</v>
       </c>
       <c r="Q60">
-        <v>16.88050544</v>
+        <v>17.469313088</v>
       </c>
       <c r="R60">
         <v>1.380952380952381</v>
       </c>
       <c r="S60">
-        <v>0.1234709087783868</v>
+        <v>0.1223714775172813</v>
       </c>
       <c r="T60">
         <v>1.125118487269703</v>
       </c>
       <c r="U60">
-        <v>0.0265</v>
+        <v>0.0178</v>
       </c>
       <c r="V60">
         <v>0.22</v>
       </c>
       <c r="W60">
-        <v>0.02067</v>
+        <v>0.013884</v>
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y60">
-        <v>7.95876403438882</v>
+        <v>11.8487217365901</v>
       </c>
       <c r="Z60">
         <v>0</v>
@@ -6205,13 +6205,13 @@
         <v>0.59</v>
       </c>
       <c r="B61">
-        <v>0.06378104234750104</v>
+        <v>0.05937482122068552</v>
       </c>
       <c r="C61">
-        <v>76.98866894835011</v>
+        <v>78.27593440225836</v>
       </c>
       <c r="D61">
-        <v>104.9526689483501</v>
+        <v>106.2399344022584</v>
       </c>
       <c r="E61">
         <v>62.764</v>
@@ -6238,45 +6238,45 @@
         <v>18.3</v>
       </c>
       <c r="M61">
-        <v>2.338996</v>
+        <v>1.5710992</v>
       </c>
       <c r="N61">
-        <v>15.961004</v>
+        <v>16.7289008</v>
       </c>
       <c r="O61">
-        <v>3.51142088</v>
+        <v>3.680358176</v>
       </c>
       <c r="P61">
-        <v>12.44958312</v>
+        <v>13.048542624</v>
       </c>
       <c r="Q61">
-        <v>16.84958312</v>
+        <v>17.448542624</v>
       </c>
       <c r="R61">
         <v>1.439024390243902</v>
       </c>
       <c r="S61">
-        <v>0.1258188837743928</v>
+        <v>0.1248372224894769</v>
       </c>
       <c r="T61">
         <v>1.149653898975856</v>
       </c>
       <c r="U61">
-        <v>0.0265</v>
+        <v>0.0178</v>
       </c>
       <c r="V61">
         <v>0.22</v>
       </c>
       <c r="W61">
-        <v>0.02067</v>
+        <v>0.013884</v>
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y61">
-        <v>7.823869728721212</v>
+        <v>11.6478959444445</v>
       </c>
       <c r="Z61">
         <v>0</v>
@@ -6287,13 +6287,13 @@
         <v>0.6</v>
       </c>
       <c r="B62">
-        <v>0.06423050300807966</v>
+        <v>0.0593009018841129</v>
       </c>
       <c r="C62">
-        <v>74.67052231732552</v>
+        <v>76.92025254945594</v>
       </c>
       <c r="D62">
-        <v>104.1305223173255</v>
+        <v>106.3802525494559</v>
       </c>
       <c r="E62">
         <v>64.25999999999999</v>
@@ -6320,45 +6320,45 @@
         <v>18.3</v>
       </c>
       <c r="M62">
-        <v>2.477376</v>
+        <v>1.597728</v>
       </c>
       <c r="N62">
-        <v>15.822624</v>
+        <v>16.702272</v>
       </c>
       <c r="O62">
-        <v>3.48097728</v>
+        <v>3.67449984</v>
       </c>
       <c r="P62">
-        <v>12.34164672</v>
+        <v>13.02777216</v>
       </c>
       <c r="Q62">
-        <v>16.74164672</v>
+        <v>17.42777216</v>
       </c>
       <c r="R62">
         <v>1.5</v>
       </c>
       <c r="S62">
-        <v>0.1282842575201991</v>
+        <v>0.1274262547102822</v>
       </c>
       <c r="T62">
         <v>1.175416081267317</v>
       </c>
       <c r="U62">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V62">
         <v>0.22</v>
       </c>
       <c r="W62">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y62">
-        <v>7.386848019840349</v>
+        <v>11.45376434537043</v>
       </c>
       <c r="Z62">
         <v>0</v>
@@ -6369,13 +6369,13 @@
         <v>0.61</v>
       </c>
       <c r="B63">
-        <v>0.06417374366865825</v>
+        <v>0.05922698254754025</v>
       </c>
       <c r="C63">
-        <v>73.27763434367486</v>
+        <v>75.56494184186838</v>
       </c>
       <c r="D63">
-        <v>104.2336343436749</v>
+        <v>106.5209418418684</v>
       </c>
       <c r="E63">
         <v>65.756</v>
@@ -6402,45 +6402,45 @@
         <v>18.3</v>
       </c>
       <c r="M63">
-        <v>2.5186656</v>
+        <v>1.6243568</v>
       </c>
       <c r="N63">
-        <v>15.7813344</v>
+        <v>16.6756432</v>
       </c>
       <c r="O63">
-        <v>3.471893568</v>
+        <v>3.668641504</v>
       </c>
       <c r="P63">
-        <v>12.309440832</v>
+        <v>13.007001696</v>
       </c>
       <c r="Q63">
-        <v>16.709440832</v>
+        <v>17.407001696</v>
       </c>
       <c r="R63">
         <v>1.564102564102564</v>
       </c>
       <c r="S63">
-        <v>0.1308760606888673</v>
+        <v>0.1301480578142058</v>
       </c>
       <c r="T63">
         <v>1.202499401112186</v>
       </c>
       <c r="U63">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V63">
         <v>0.22</v>
       </c>
       <c r="W63">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y63">
-        <v>7.265752150662637</v>
+        <v>11.2659977167578</v>
       </c>
       <c r="Z63">
         <v>0</v>
@@ -6451,13 +6451,13 @@
         <v>0.62</v>
       </c>
       <c r="B64">
-        <v>0.06411698432923683</v>
+        <v>0.05915306321096761</v>
       </c>
       <c r="C64">
-        <v>71.88495077941882</v>
+        <v>74.21000375397897</v>
       </c>
       <c r="D64">
-        <v>104.3369507794188</v>
+        <v>106.662003753979</v>
       </c>
       <c r="E64">
         <v>67.252</v>
@@ -6484,45 +6484,45 @@
         <v>18.3</v>
       </c>
       <c r="M64">
-        <v>2.5599552</v>
+        <v>1.6509856</v>
       </c>
       <c r="N64">
-        <v>15.7400448</v>
+        <v>16.6490144</v>
       </c>
       <c r="O64">
-        <v>3.462809856</v>
+        <v>3.662783168000001</v>
       </c>
       <c r="P64">
-        <v>12.277234944</v>
+        <v>12.986231232</v>
       </c>
       <c r="Q64">
-        <v>16.677234944</v>
+        <v>17.386231232</v>
       </c>
       <c r="R64">
         <v>1.631578947368421</v>
       </c>
       <c r="S64">
-        <v>0.1336042745506233</v>
+        <v>0.1330131137130727</v>
       </c>
       <c r="T64">
         <v>1.231008158843627</v>
       </c>
       <c r="U64">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V64">
         <v>0.22</v>
       </c>
       <c r="W64">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y64">
-        <v>7.148562599845499</v>
+        <v>11.08428807616493</v>
       </c>
       <c r="Z64">
         <v>0</v>
@@ -6533,13 +6533,13 @@
         <v>0.63</v>
       </c>
       <c r="B65">
-        <v>0.06406022498981545</v>
+        <v>0.05907914387439498</v>
       </c>
       <c r="C65">
-        <v>70.49247223299247</v>
+        <v>72.85543976809197</v>
       </c>
       <c r="D65">
-        <v>104.4404722329925</v>
+        <v>106.803439768092</v>
       </c>
       <c r="E65">
         <v>68.74799999999999</v>
@@ -6566,45 +6566,45 @@
         <v>18.3</v>
       </c>
       <c r="M65">
-        <v>2.6012448</v>
+        <v>1.6776144</v>
       </c>
       <c r="N65">
-        <v>15.6987552</v>
+        <v>16.6223856</v>
       </c>
       <c r="O65">
-        <v>3.453726144</v>
+        <v>3.656924832</v>
       </c>
       <c r="P65">
-        <v>12.245029056</v>
+        <v>12.965460768</v>
       </c>
       <c r="Q65">
-        <v>16.645029056</v>
+        <v>17.365460768</v>
       </c>
       <c r="R65">
         <v>1.702702702702703</v>
       </c>
       <c r="S65">
-        <v>0.1364799594319336</v>
+        <v>0.1360330374983648</v>
       </c>
       <c r="T65">
         <v>1.261057930506497</v>
       </c>
       <c r="U65">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V65">
         <v>0.22</v>
       </c>
       <c r="W65">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y65">
-        <v>7.035093352228903</v>
+        <v>10.90834699559088</v>
       </c>
       <c r="Z65">
         <v>0</v>
@@ -6615,13 +6615,13 @@
         <v>0.64</v>
       </c>
       <c r="B66">
-        <v>0.06400346565039404</v>
+        <v>0.05900522453782235</v>
       </c>
       <c r="C66">
-        <v>69.10019931524823</v>
+        <v>71.50125137438422</v>
       </c>
       <c r="D66">
-        <v>104.5441993152482</v>
+        <v>106.9452513743842</v>
       </c>
       <c r="E66">
         <v>70.244</v>
@@ -6648,45 +6648,45 @@
         <v>18.3</v>
       </c>
       <c r="M66">
-        <v>2.6425344</v>
+        <v>1.7042432</v>
       </c>
       <c r="N66">
-        <v>15.6574656</v>
+        <v>16.5957568</v>
       </c>
       <c r="O66">
-        <v>3.444642432000001</v>
+        <v>3.651066496</v>
       </c>
       <c r="P66">
-        <v>12.212823168</v>
+        <v>12.944690304</v>
       </c>
       <c r="Q66">
-        <v>16.612823168</v>
+        <v>17.344690304</v>
       </c>
       <c r="R66">
         <v>1.777777777777778</v>
       </c>
       <c r="S66">
-        <v>0.1395154045844279</v>
+        <v>0.1392207348272843</v>
       </c>
       <c r="T66">
         <v>1.292777133928416</v>
       </c>
       <c r="U66">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V66">
         <v>0.22</v>
       </c>
       <c r="W66">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y66">
-        <v>6.925170018600327</v>
+        <v>10.73790407378477</v>
       </c>
       <c r="Z66">
         <v>0</v>
@@ -6697,13 +6697,13 @@
         <v>0.65</v>
       </c>
       <c r="B67">
-        <v>0.06394670631097266</v>
+        <v>0.06004670520124972</v>
       </c>
       <c r="C67">
-        <v>67.70813263946748</v>
+        <v>68.04129599401999</v>
       </c>
       <c r="D67">
-        <v>104.6481326394675</v>
+        <v>104.98129599402</v>
       </c>
       <c r="E67">
         <v>71.73999999999999</v>
@@ -6730,45 +6730,45 @@
         <v>18.3</v>
       </c>
       <c r="M67">
-        <v>2.683824</v>
+        <v>1.9448</v>
       </c>
       <c r="N67">
-        <v>15.616176</v>
+        <v>16.3552</v>
       </c>
       <c r="O67">
-        <v>3.43555872</v>
+        <v>3.598144</v>
       </c>
       <c r="P67">
-        <v>12.18061728</v>
+        <v>12.757056</v>
       </c>
       <c r="Q67">
-        <v>16.58061728</v>
+        <v>17.157056</v>
       </c>
       <c r="R67">
         <v>1.857142857142857</v>
       </c>
       <c r="S67">
-        <v>0.1427243037456362</v>
+        <v>0.1425905862892849</v>
       </c>
       <c r="T67">
         <v>1.326308863260159</v>
       </c>
       <c r="U67">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V67">
         <v>0.22</v>
       </c>
       <c r="W67">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y67">
-        <v>6.81862894139109</v>
+        <v>9.409707939119706</v>
       </c>
       <c r="Z67">
         <v>0</v>
@@ -6779,13 +6779,13 @@
         <v>0.66</v>
       </c>
       <c r="B68">
-        <v>0.06388994697155126</v>
+        <v>0.05998994586467709</v>
       </c>
       <c r="C68">
-        <v>66.31627282137289</v>
+        <v>66.65046869054329</v>
       </c>
       <c r="D68">
-        <v>104.7522728213729</v>
+        <v>105.0864686905433</v>
       </c>
       <c r="E68">
         <v>73.236</v>
@@ -6812,45 +6812,45 @@
         <v>18.3</v>
       </c>
       <c r="M68">
-        <v>2.7251136</v>
+        <v>1.97472</v>
       </c>
       <c r="N68">
-        <v>15.5748864</v>
+        <v>16.32528</v>
       </c>
       <c r="O68">
-        <v>3.426475008</v>
+        <v>3.5915616</v>
       </c>
       <c r="P68">
-        <v>12.148411392</v>
+        <v>12.7337184</v>
       </c>
       <c r="Q68">
-        <v>16.548411392</v>
+        <v>17.1337184</v>
       </c>
       <c r="R68">
         <v>1.941176470588236</v>
       </c>
       <c r="S68">
-        <v>0.1461219616810331</v>
+        <v>0.1461586643078738</v>
       </c>
       <c r="T68">
         <v>1.361813047258475</v>
       </c>
       <c r="U68">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V68">
         <v>0.22</v>
       </c>
       <c r="W68">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y68">
-        <v>6.715316381673042</v>
+        <v>9.267136606708799</v>
       </c>
       <c r="Z68">
         <v>0</v>
@@ -6861,13 +6861,13 @@
         <v>0.67</v>
       </c>
       <c r="B69">
-        <v>0.06383318763212986</v>
+        <v>0.05993318652810445</v>
       </c>
       <c r="C69">
-        <v>64.92462047914054</v>
+        <v>65.25985232728348</v>
       </c>
       <c r="D69">
-        <v>104.8566204791405</v>
+        <v>105.1918523272835</v>
       </c>
       <c r="E69">
         <v>74.732</v>
@@ -6894,45 +6894,45 @@
         <v>18.3</v>
       </c>
       <c r="M69">
-        <v>2.7664032</v>
+        <v>2.00464</v>
       </c>
       <c r="N69">
-        <v>15.5335968</v>
+        <v>16.29536</v>
       </c>
       <c r="O69">
-        <v>3.417391296</v>
+        <v>3.584979200000001</v>
       </c>
       <c r="P69">
-        <v>12.116205504</v>
+        <v>12.7103808</v>
       </c>
       <c r="Q69">
-        <v>16.516205504</v>
+        <v>17.1103808</v>
       </c>
       <c r="R69">
         <v>2.030303030303031</v>
       </c>
       <c r="S69">
-        <v>0.1497255382791814</v>
+        <v>0.1499429894791044</v>
       </c>
       <c r="T69">
         <v>1.399468999983961</v>
       </c>
       <c r="U69">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V69">
         <v>0.22</v>
       </c>
       <c r="W69">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y69">
-        <v>6.615087778961505</v>
+        <v>9.128821134966879</v>
       </c>
       <c r="Z69">
         <v>0</v>
@@ -6943,13 +6943,13 @@
         <v>0.68</v>
       </c>
       <c r="B70">
-        <v>0.06377642829270845</v>
+        <v>0.05987642719153181</v>
       </c>
       <c r="C70">
-        <v>63.53317623341206</v>
+        <v>63.86944753948768</v>
       </c>
       <c r="D70">
-        <v>104.9611762334121</v>
+        <v>105.2974475394877</v>
       </c>
       <c r="E70">
         <v>76.22800000000001</v>
@@ -6976,45 +6976,45 @@
         <v>18.3</v>
       </c>
       <c r="M70">
-        <v>2.8076928</v>
+        <v>2.03456</v>
       </c>
       <c r="N70">
-        <v>15.4923072</v>
+        <v>16.26544</v>
       </c>
       <c r="O70">
-        <v>3.408307584</v>
+        <v>3.578396800000001</v>
       </c>
       <c r="P70">
-        <v>12.083999616</v>
+        <v>12.6870432</v>
       </c>
       <c r="Q70">
-        <v>16.483999616</v>
+        <v>17.0870432</v>
       </c>
       <c r="R70">
         <v>2.125</v>
       </c>
       <c r="S70">
-        <v>0.1535543384147139</v>
+        <v>0.1539638349735369</v>
       </c>
       <c r="T70">
         <v>1.439478449754791</v>
       </c>
       <c r="U70">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V70">
         <v>0.22</v>
       </c>
       <c r="W70">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y70">
-        <v>6.517807076329718</v>
+        <v>8.994573765335012</v>
       </c>
       <c r="Z70">
         <v>0</v>
@@ -7025,13 +7025,13 @@
         <v>0.6900000000000001</v>
       </c>
       <c r="B71">
-        <v>0.06371966895328705</v>
+        <v>0.05981966785495917</v>
       </c>
       <c r="C71">
-        <v>62.141940707307</v>
+        <v>62.47925496495644</v>
       </c>
       <c r="D71">
-        <v>105.065940707307</v>
+        <v>105.4032549649564</v>
       </c>
       <c r="E71">
         <v>77.724</v>
@@ -7058,45 +7058,45 @@
         <v>18.3</v>
       </c>
       <c r="M71">
-        <v>2.8489824</v>
+        <v>2.06448</v>
       </c>
       <c r="N71">
-        <v>15.4510176</v>
+        <v>16.23552</v>
       </c>
       <c r="O71">
-        <v>3.399223872</v>
+        <v>3.5718144</v>
       </c>
       <c r="P71">
-        <v>12.051793728</v>
+        <v>12.6637056</v>
       </c>
       <c r="Q71">
-        <v>16.451793728</v>
+        <v>17.0637056</v>
       </c>
       <c r="R71">
         <v>2.225806451612904</v>
       </c>
       <c r="S71">
-        <v>0.1576301579138292</v>
+        <v>0.158244089854707</v>
       </c>
       <c r="T71">
         <v>1.482069154349544</v>
       </c>
       <c r="U71">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V71">
         <v>0.22</v>
       </c>
       <c r="W71">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y71">
-        <v>6.423346104208997</v>
+        <v>8.864217623808418</v>
       </c>
       <c r="Z71">
         <v>0</v>
@@ -7107,13 +7107,13 @@
         <v>0.7000000000000001</v>
       </c>
       <c r="B72">
-        <v>0.06366290961386564</v>
+        <v>0.05976290851838652</v>
       </c>
       <c r="C72">
-        <v>60.75091452643524</v>
+        <v>61.08927524405637</v>
       </c>
       <c r="D72">
-        <v>105.1709145264353</v>
+        <v>105.5092752440564</v>
       </c>
       <c r="E72">
         <v>79.22000000000001</v>
@@ -7140,45 +7140,45 @@
         <v>18.3</v>
       </c>
       <c r="M72">
-        <v>2.890272</v>
+        <v>2.0944</v>
       </c>
       <c r="N72">
-        <v>15.409728</v>
+        <v>16.2056</v>
       </c>
       <c r="O72">
-        <v>3.39014016</v>
+        <v>3.565232</v>
       </c>
       <c r="P72">
-        <v>12.01958784</v>
+        <v>12.640368</v>
       </c>
       <c r="Q72">
-        <v>16.41958784</v>
+        <v>17.040368</v>
       </c>
       <c r="R72">
         <v>2.333333333333334</v>
       </c>
       <c r="S72">
-        <v>0.1619776987128855</v>
+        <v>0.1628096950612885</v>
       </c>
       <c r="T72">
         <v>1.527499239250615</v>
       </c>
       <c r="U72">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V72">
         <v>0.22</v>
       </c>
       <c r="W72">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y72">
-        <v>6.331584017006011</v>
+        <v>8.737585943468297</v>
       </c>
       <c r="Z72">
         <v>0</v>
@@ -7189,13 +7189,13 @@
         <v>0.71</v>
       </c>
       <c r="B73">
-        <v>0.06443685027444425</v>
+        <v>0.05970614918181389</v>
       </c>
       <c r="C73">
-        <v>57.84137373247562</v>
+        <v>59.69950901973318</v>
       </c>
       <c r="D73">
-        <v>103.7573737324756</v>
+        <v>105.6155090197332</v>
       </c>
       <c r="E73">
         <v>80.71599999999999</v>
@@ -7222,45 +7222,45 @@
         <v>18.3</v>
       </c>
       <c r="M73">
-        <v>3.0908856</v>
+        <v>2.12432</v>
       </c>
       <c r="N73">
-        <v>15.2091144</v>
+        <v>16.17568</v>
       </c>
       <c r="O73">
-        <v>3.346005168</v>
+        <v>3.5586496</v>
       </c>
       <c r="P73">
-        <v>11.863109232</v>
+        <v>12.6170304</v>
       </c>
       <c r="Q73">
-        <v>16.263109232</v>
+        <v>17.0170304</v>
       </c>
       <c r="R73">
         <v>2.448275862068965</v>
       </c>
       <c r="S73">
-        <v>0.1666250699118767</v>
+        <v>0.1676901695924617</v>
       </c>
       <c r="T73">
         <v>1.576062433455207</v>
       </c>
       <c r="U73">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V73">
         <v>0.22</v>
       </c>
       <c r="W73">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y73">
-        <v>5.920633232106682</v>
+        <v>8.614521352715222</v>
       </c>
       <c r="Z73">
         <v>0</v>
@@ -7271,13 +7271,13 @@
         <v>0.72</v>
       </c>
       <c r="B74">
-        <v>0.06439179093502286</v>
+        <v>0.05964938984524126</v>
       </c>
       <c r="C74">
-        <v>56.42662848953415</v>
+        <v>58.30995693752462</v>
       </c>
       <c r="D74">
-        <v>103.8386284895341</v>
+        <v>105.7219569375246</v>
       </c>
       <c r="E74">
         <v>82.21199999999999</v>
@@ -7304,45 +7304,45 @@
         <v>18.3</v>
       </c>
       <c r="M74">
-        <v>3.1344192</v>
+        <v>2.154239999999999</v>
       </c>
       <c r="N74">
-        <v>15.1655808</v>
+        <v>16.14576</v>
       </c>
       <c r="O74">
-        <v>3.336427776</v>
+        <v>3.552067200000001</v>
       </c>
       <c r="P74">
-        <v>11.829153024</v>
+        <v>12.5936928</v>
       </c>
       <c r="Q74">
-        <v>16.229153024</v>
+        <v>16.9936928</v>
       </c>
       <c r="R74">
         <v>2.571428571428571</v>
       </c>
       <c r="S74">
-        <v>0.1716043961965102</v>
+        <v>0.1729192494472902</v>
       </c>
       <c r="T74">
         <v>1.628094427245842</v>
       </c>
       <c r="U74">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V74">
         <v>0.22</v>
       </c>
       <c r="W74">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y74">
-        <v>5.83840221499409</v>
+        <v>8.494875222816404</v>
       </c>
       <c r="Z74">
         <v>0</v>
@@ -7353,13 +7353,13 @@
         <v>0.73</v>
       </c>
       <c r="B75">
-        <v>0.06434673159560145</v>
+        <v>0.05959263050866861</v>
       </c>
       <c r="C75">
-        <v>55.01201061122808</v>
+        <v>56.92061964557357</v>
       </c>
       <c r="D75">
-        <v>103.9200106112281</v>
+        <v>105.8286196455736</v>
       </c>
       <c r="E75">
         <v>83.708</v>
@@ -7386,45 +7386,45 @@
         <v>18.3</v>
       </c>
       <c r="M75">
-        <v>3.1779528</v>
+        <v>2.184159999999999</v>
       </c>
       <c r="N75">
-        <v>15.1220472</v>
+        <v>16.11584</v>
       </c>
       <c r="O75">
-        <v>3.326850384</v>
+        <v>3.545484800000001</v>
       </c>
       <c r="P75">
-        <v>11.795196816</v>
+        <v>12.5703552</v>
       </c>
       <c r="Q75">
-        <v>16.195196816</v>
+        <v>16.9703552</v>
       </c>
       <c r="R75">
         <v>2.703703703703703</v>
       </c>
       <c r="S75">
-        <v>0.1769525614651905</v>
+        <v>0.1785356685506245</v>
       </c>
       <c r="T75">
         <v>1.683980642798747</v>
       </c>
       <c r="U75">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V75">
         <v>0.22</v>
       </c>
       <c r="W75">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y75">
-        <v>5.758424102459924</v>
+        <v>8.378507069079191</v>
       </c>
       <c r="Z75">
         <v>0</v>
@@ -7435,13 +7435,13 @@
         <v>0.74</v>
       </c>
       <c r="B76">
-        <v>0.06430167225618005</v>
+        <v>0.05953587117209598</v>
       </c>
       <c r="C76">
-        <v>53.59752039725318</v>
+        <v>55.53149779464123</v>
       </c>
       <c r="D76">
-        <v>104.0015203972532</v>
+        <v>105.9354977946412</v>
       </c>
       <c r="E76">
         <v>85.20399999999999</v>
@@ -7468,45 +7468,45 @@
         <v>18.3</v>
       </c>
       <c r="M76">
-        <v>3.2214864</v>
+        <v>2.21408</v>
       </c>
       <c r="N76">
-        <v>15.0785136</v>
+        <v>16.08592</v>
       </c>
       <c r="O76">
-        <v>3.317272992</v>
+        <v>3.5389024</v>
       </c>
       <c r="P76">
-        <v>11.761240608</v>
+        <v>12.5470176</v>
       </c>
       <c r="Q76">
-        <v>16.161240608</v>
+        <v>16.9470176</v>
       </c>
       <c r="R76">
         <v>2.846153846153846</v>
       </c>
       <c r="S76">
-        <v>0.1827121240622309</v>
+        <v>0.1845841198926768</v>
       </c>
       <c r="T76">
         <v>1.744165798009567</v>
       </c>
       <c r="U76">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V76">
         <v>0.22</v>
       </c>
       <c r="W76">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y76">
-        <v>5.680607560534789</v>
+        <v>8.26528400057812</v>
       </c>
       <c r="Z76">
         <v>0</v>
@@ -7517,13 +7517,13 @@
         <v>0.75</v>
       </c>
       <c r="B77">
-        <v>0.06425661291675865</v>
+        <v>0.05947911183552335</v>
       </c>
       <c r="C77">
-        <v>52.18315814824626</v>
+        <v>54.1425920381202</v>
       </c>
       <c r="D77">
-        <v>104.0831581482463</v>
+        <v>106.0425920381202</v>
       </c>
       <c r="E77">
         <v>86.69999999999999</v>
@@ -7550,45 +7550,45 @@
         <v>18.3</v>
       </c>
       <c r="M77">
-        <v>3.26502</v>
+        <v>2.243999999999999</v>
       </c>
       <c r="N77">
-        <v>15.03498</v>
+        <v>16.056</v>
       </c>
       <c r="O77">
-        <v>3.3076956</v>
+        <v>3.53232</v>
       </c>
       <c r="P77">
-        <v>11.7272844</v>
+        <v>12.52368</v>
       </c>
       <c r="Q77">
-        <v>16.1272844</v>
+        <v>16.92368</v>
       </c>
       <c r="R77">
         <v>3</v>
       </c>
       <c r="S77">
-        <v>0.1889324516670346</v>
+        <v>0.1911164473420934</v>
       </c>
       <c r="T77">
         <v>1.809165765637253</v>
       </c>
       <c r="U77">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V77">
         <v>0.22</v>
       </c>
       <c r="W77">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y77">
-        <v>5.604866126394326</v>
+        <v>8.155080213903746</v>
       </c>
       <c r="Z77">
         <v>0</v>
@@ -7599,13 +7599,13 @@
         <v>0.76</v>
       </c>
       <c r="B78">
-        <v>0.06421155357733725</v>
+        <v>0.05942235249895071</v>
       </c>
       <c r="C78">
-        <v>50.76892416578889</v>
+        <v>52.75390303204807</v>
       </c>
       <c r="D78">
-        <v>104.1649241657889</v>
+        <v>106.1499030320481</v>
       </c>
       <c r="E78">
         <v>88.196</v>
@@ -7632,45 +7632,45 @@
         <v>18.3</v>
       </c>
       <c r="M78">
-        <v>3.3085536</v>
+        <v>2.273919999999999</v>
       </c>
       <c r="N78">
-        <v>14.9914464</v>
+        <v>16.02608</v>
       </c>
       <c r="O78">
-        <v>3.298118208</v>
+        <v>3.5257376</v>
       </c>
       <c r="P78">
-        <v>11.693328192</v>
+        <v>12.5003424</v>
       </c>
       <c r="Q78">
-        <v>16.093328192</v>
+        <v>16.9003424</v>
       </c>
       <c r="R78">
         <v>3.166666666666667</v>
       </c>
       <c r="S78">
-        <v>0.1956711399055719</v>
+        <v>0.1981931354122946</v>
       </c>
       <c r="T78">
         <v>1.879582397233912</v>
       </c>
       <c r="U78">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V78">
         <v>0.22</v>
       </c>
       <c r="W78">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X78" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y78">
-        <v>5.531117887889136</v>
+        <v>8.047776526878696</v>
       </c>
       <c r="Z78">
         <v>0</v>
@@ -7681,13 +7681,13 @@
         <v>0.77</v>
       </c>
       <c r="B79">
-        <v>0.06416649423791584</v>
+        <v>0.05936559316237808</v>
       </c>
       <c r="C79">
-        <v>49.35481875241099</v>
+        <v>51.36543143512053</v>
       </c>
       <c r="D79">
-        <v>104.246818752411</v>
+        <v>106.2574314351205</v>
       </c>
       <c r="E79">
         <v>89.69199999999999</v>
@@ -7714,45 +7714,45 @@
         <v>18.3</v>
       </c>
       <c r="M79">
-        <v>3.3520872</v>
+        <v>2.30384</v>
       </c>
       <c r="N79">
-        <v>14.9479128</v>
+        <v>15.99616</v>
       </c>
       <c r="O79">
-        <v>3.288540816</v>
+        <v>3.5191552</v>
       </c>
       <c r="P79">
-        <v>11.659371984</v>
+        <v>12.4770048</v>
       </c>
       <c r="Q79">
-        <v>16.059371984</v>
+        <v>16.8770048</v>
       </c>
       <c r="R79">
         <v>3.347826086956522</v>
       </c>
       <c r="S79">
-        <v>0.2029958010344167</v>
+        <v>0.2058851876625134</v>
       </c>
       <c r="T79">
         <v>1.956122214186803</v>
       </c>
       <c r="U79">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V79">
         <v>0.22</v>
       </c>
       <c r="W79">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X79" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y79">
-        <v>5.459285188046421</v>
+        <v>7.943259948607544</v>
       </c>
       <c r="Z79">
         <v>0</v>
@@ -7763,13 +7763,13 @@
         <v>0.78</v>
       </c>
       <c r="B80">
-        <v>0.06412143489849445</v>
+        <v>0.05997807382580544</v>
       </c>
       <c r="C80">
-        <v>47.94084221159464</v>
+        <v>48.72049373992938</v>
       </c>
       <c r="D80">
-        <v>104.3288422115946</v>
+        <v>105.1084937399294</v>
       </c>
       <c r="E80">
         <v>91.188</v>
@@ -7796,45 +7796,45 @@
         <v>18.3</v>
       </c>
       <c r="M80">
-        <v>3.3956208</v>
+        <v>2.4621168</v>
       </c>
       <c r="N80">
-        <v>14.9043792</v>
+        <v>15.8378832</v>
       </c>
       <c r="O80">
-        <v>3.278963424</v>
+        <v>3.484334304</v>
       </c>
       <c r="P80">
-        <v>11.625415776</v>
+        <v>12.353548896</v>
       </c>
       <c r="Q80">
-        <v>16.025415776</v>
+        <v>16.753548896</v>
       </c>
       <c r="R80">
         <v>3.545454545454546</v>
       </c>
       <c r="S80">
-        <v>0.2109863404477021</v>
+        <v>0.2142765173900248</v>
       </c>
       <c r="T80">
         <v>2.03962019631723</v>
       </c>
       <c r="U80">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V80">
         <v>0.22</v>
       </c>
       <c r="W80">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y80">
-        <v>5.389294352302236</v>
+        <v>7.432628703886022</v>
       </c>
       <c r="Z80">
         <v>0</v>
@@ -7845,13 +7845,13 @@
         <v>0.79</v>
       </c>
       <c r="B81">
-        <v>0.06407637555907306</v>
+        <v>0.0599298944892328</v>
       </c>
       <c r="C81">
-        <v>46.52699484777779</v>
+        <v>47.3139710587152</v>
       </c>
       <c r="D81">
-        <v>104.4109948477778</v>
+        <v>105.1979710587152</v>
       </c>
       <c r="E81">
         <v>92.684</v>
@@ -7878,45 +7878,45 @@
         <v>18.3</v>
       </c>
       <c r="M81">
-        <v>3.4391544</v>
+        <v>2.4936824</v>
       </c>
       <c r="N81">
-        <v>14.8608456</v>
+        <v>15.8063176</v>
       </c>
       <c r="O81">
-        <v>3.269386032</v>
+        <v>3.477389872</v>
       </c>
       <c r="P81">
-        <v>11.591459568</v>
+        <v>12.328927728</v>
       </c>
       <c r="Q81">
-        <v>15.991459568</v>
+        <v>16.728927728</v>
       </c>
       <c r="R81">
         <v>3.761904761904763</v>
       </c>
       <c r="S81">
-        <v>0.2197378836146336</v>
+        <v>0.2234670213772991</v>
       </c>
       <c r="T81">
         <v>2.131070367221982</v>
       </c>
       <c r="U81">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V81">
         <v>0.22</v>
       </c>
       <c r="W81">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X81" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y81">
-        <v>5.321075436450309</v>
+        <v>7.338544796241895</v>
       </c>
       <c r="Z81">
         <v>0</v>
@@ -7927,13 +7927,13 @@
         <v>0.8</v>
       </c>
       <c r="B82">
-        <v>0.06403131621965165</v>
+        <v>0.05988171515266016</v>
       </c>
       <c r="C82">
-        <v>45.11327696635817</v>
+        <v>45.90760084875527</v>
       </c>
       <c r="D82">
-        <v>104.4932769663582</v>
+        <v>105.2876008487553</v>
       </c>
       <c r="E82">
         <v>94.18000000000001</v>
@@ -7960,45 +7960,45 @@
         <v>18.3</v>
       </c>
       <c r="M82">
-        <v>3.482688</v>
+        <v>2.525248</v>
       </c>
       <c r="N82">
-        <v>14.817312</v>
+        <v>15.774752</v>
       </c>
       <c r="O82">
-        <v>3.25980864</v>
+        <v>3.47044544</v>
       </c>
       <c r="P82">
-        <v>11.55750336</v>
+        <v>12.30430656</v>
       </c>
       <c r="Q82">
-        <v>15.95750336</v>
+        <v>16.70430656</v>
       </c>
       <c r="R82">
         <v>4.000000000000001</v>
       </c>
       <c r="S82">
-        <v>0.2293645810982583</v>
+        <v>0.2335765757633009</v>
       </c>
       <c r="T82">
         <v>2.23166555521721</v>
       </c>
       <c r="U82">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V82">
         <v>0.22</v>
       </c>
       <c r="W82">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y82">
-        <v>5.25456199349468</v>
+        <v>7.24681298628887</v>
       </c>
       <c r="Z82">
         <v>0</v>
@@ -8009,13 +8009,13 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="B83">
-        <v>0.06398625688023024</v>
+        <v>0.05983353581608752</v>
       </c>
       <c r="C83">
-        <v>43.69968887369679</v>
+        <v>44.50138350010333</v>
       </c>
       <c r="D83">
-        <v>104.5756888736968</v>
+        <v>105.3773835001033</v>
       </c>
       <c r="E83">
         <v>95.676</v>
@@ -8042,45 +8042,45 @@
         <v>18.3</v>
       </c>
       <c r="M83">
-        <v>3.5262216</v>
+        <v>2.5568136</v>
       </c>
       <c r="N83">
-        <v>14.7737784</v>
+        <v>15.7431864</v>
       </c>
       <c r="O83">
-        <v>3.250231248</v>
+        <v>3.463501008</v>
       </c>
       <c r="P83">
-        <v>11.523547152</v>
+        <v>12.279685392</v>
       </c>
       <c r="Q83">
-        <v>15.923547152</v>
+        <v>16.679685392</v>
       </c>
       <c r="R83">
         <v>4.263157894736843</v>
       </c>
       <c r="S83">
-        <v>0.2400046151591066</v>
+        <v>0.2447502937688818</v>
       </c>
       <c r="T83">
         <v>2.342849710369831</v>
       </c>
       <c r="U83">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V83">
         <v>0.22</v>
       </c>
       <c r="W83">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X83" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y83">
-        <v>5.189690857772524</v>
+        <v>7.157346159297651</v>
       </c>
       <c r="Z83">
         <v>0</v>
@@ -8091,13 +8091,13 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="B84">
-        <v>0.06394119754080885</v>
+        <v>0.05978535647951489</v>
       </c>
       <c r="C84">
-        <v>42.28623087712198</v>
+        <v>43.09531940414463</v>
       </c>
       <c r="D84">
-        <v>104.658230877122</v>
+        <v>105.4673194041447</v>
       </c>
       <c r="E84">
         <v>97.17200000000001</v>
@@ -8124,45 +8124,45 @@
         <v>18.3</v>
       </c>
       <c r="M84">
-        <v>3.5697552</v>
+        <v>2.5883792</v>
       </c>
       <c r="N84">
-        <v>14.7302448</v>
+        <v>15.7116208</v>
       </c>
       <c r="O84">
-        <v>3.240653856</v>
+        <v>3.456556576</v>
       </c>
       <c r="P84">
-        <v>11.489590944</v>
+        <v>12.255064224</v>
       </c>
       <c r="Q84">
-        <v>15.889590944</v>
+        <v>16.655064224</v>
       </c>
       <c r="R84">
         <v>4.555555555555557</v>
       </c>
       <c r="S84">
-        <v>0.2518268752267159</v>
+        <v>0.257165535997305</v>
       </c>
       <c r="T84">
         <v>2.466387660539409</v>
       </c>
       <c r="U84">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V84">
         <v>0.22</v>
       </c>
       <c r="W84">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y84">
-        <v>5.126401944872859</v>
+        <v>7.070061450037922</v>
       </c>
       <c r="Z84">
         <v>0</v>
@@ -8173,13 +8173,13 @@
         <v>0.8300000000000001</v>
       </c>
       <c r="B85">
-        <v>0.06389613820138745</v>
+        <v>0.05973717714294225</v>
       </c>
       <c r="C85">
-        <v>40.87290328493316</v>
+        <v>41.68940895360186</v>
       </c>
       <c r="D85">
-        <v>104.7409032849332</v>
+        <v>105.5574089536019</v>
       </c>
       <c r="E85">
         <v>98.66800000000001</v>
@@ -8206,45 +8206,45 @@
         <v>18.3</v>
       </c>
       <c r="M85">
-        <v>3.6132888</v>
+        <v>2.6199448</v>
       </c>
       <c r="N85">
-        <v>14.6867112</v>
+        <v>15.6800552</v>
       </c>
       <c r="O85">
-        <v>3.231076464</v>
+        <v>3.449612144</v>
       </c>
       <c r="P85">
-        <v>11.455634736</v>
+        <v>12.230443056</v>
       </c>
       <c r="Q85">
-        <v>15.855634736</v>
+        <v>16.630443056</v>
       </c>
       <c r="R85">
         <v>4.882352941176473</v>
       </c>
       <c r="S85">
-        <v>0.2650399894199262</v>
+        <v>0.2710413949584839</v>
       </c>
       <c r="T85">
         <v>2.604459487199526</v>
       </c>
       <c r="U85">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V85">
         <v>0.22</v>
       </c>
       <c r="W85">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y85">
-        <v>5.064638066018968</v>
+        <v>6.984879986784454</v>
       </c>
       <c r="Z85">
         <v>0</v>
@@ -8255,13 +8255,13 @@
         <v>0.84</v>
       </c>
       <c r="B86">
-        <v>0.06385107886196606</v>
+        <v>0.05968899780636962</v>
       </c>
       <c r="C86">
-        <v>39.45970640640471</v>
+        <v>40.28365254254049</v>
       </c>
       <c r="D86">
-        <v>104.8237064064047</v>
+        <v>105.6476525425405</v>
       </c>
       <c r="E86">
         <v>100.164</v>
@@ -8288,45 +8288,45 @@
         <v>18.3</v>
       </c>
       <c r="M86">
-        <v>3.6568224</v>
+        <v>2.6515104</v>
       </c>
       <c r="N86">
-        <v>14.6431776</v>
+        <v>15.6484896</v>
       </c>
       <c r="O86">
-        <v>3.221499072</v>
+        <v>3.442667712</v>
       </c>
       <c r="P86">
-        <v>11.421678528</v>
+        <v>12.205821888</v>
       </c>
       <c r="Q86">
-        <v>15.821678528</v>
+        <v>16.605821888</v>
       </c>
       <c r="R86">
         <v>5.249999999999999</v>
       </c>
       <c r="S86">
-        <v>0.2799047428872878</v>
+        <v>0.2866517362898101</v>
       </c>
       <c r="T86">
         <v>2.759790292192156</v>
       </c>
       <c r="U86">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V86">
         <v>0.22</v>
       </c>
       <c r="W86">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y86">
-        <v>5.004344755709219</v>
+        <v>6.90172665360845</v>
       </c>
       <c r="Z86">
         <v>0</v>
@@ -8337,13 +8337,13 @@
         <v>0.85</v>
       </c>
       <c r="B87">
-        <v>0.06380601952254465</v>
+        <v>0.05964081846979699</v>
       </c>
       <c r="C87">
-        <v>38.04664055178964</v>
+        <v>38.87805056637487</v>
       </c>
       <c r="D87">
-        <v>104.9066405517896</v>
+        <v>105.7380505663749</v>
       </c>
       <c r="E87">
         <v>101.66</v>
@@ -8370,45 +8370,45 @@
         <v>18.3</v>
       </c>
       <c r="M87">
-        <v>3.700356</v>
+        <v>2.683076</v>
       </c>
       <c r="N87">
-        <v>14.599644</v>
+        <v>15.616924</v>
       </c>
       <c r="O87">
-        <v>3.21192168</v>
+        <v>3.43572328</v>
       </c>
       <c r="P87">
-        <v>11.38772232</v>
+        <v>12.18120072</v>
       </c>
       <c r="Q87">
-        <v>15.78772232</v>
+        <v>16.58120072</v>
       </c>
       <c r="R87">
         <v>5.666666666666666</v>
       </c>
       <c r="S87">
-        <v>0.296751463483631</v>
+        <v>0.3043434564653132</v>
       </c>
       <c r="T87">
         <v>2.935831871183805</v>
       </c>
       <c r="U87">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V87">
         <v>0.22</v>
       </c>
       <c r="W87">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y87">
-        <v>4.945470111524404</v>
+        <v>6.820529869448349</v>
       </c>
       <c r="Z87">
         <v>0</v>
@@ -8419,13 +8419,13 @@
         <v>0.86</v>
       </c>
       <c r="B88">
-        <v>0.06376096018312324</v>
+        <v>0.05959263913322435</v>
       </c>
       <c r="C88">
-        <v>36.63370603232363</v>
+        <v>37.47260342187383</v>
       </c>
       <c r="D88">
-        <v>104.9897060323237</v>
+        <v>105.8286034218738</v>
       </c>
       <c r="E88">
         <v>103.156</v>
@@ -8452,45 +8452,45 @@
         <v>18.3</v>
       </c>
       <c r="M88">
-        <v>3.7438896</v>
+        <v>2.7146416</v>
       </c>
       <c r="N88">
-        <v>14.5561104</v>
+        <v>15.5853584</v>
       </c>
       <c r="O88">
-        <v>3.202344288</v>
+        <v>3.428778848</v>
       </c>
       <c r="P88">
-        <v>11.353766112</v>
+        <v>12.156579552</v>
       </c>
       <c r="Q88">
-        <v>15.753766112</v>
+        <v>16.556579552</v>
       </c>
       <c r="R88">
         <v>6.142857142857142</v>
       </c>
       <c r="S88">
-        <v>0.3160048584508803</v>
+        <v>0.3245625652373167</v>
       </c>
       <c r="T88">
         <v>3.137022247174261</v>
       </c>
       <c r="U88">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V88">
         <v>0.22</v>
       </c>
       <c r="W88">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y88">
-        <v>4.88796464511133</v>
+        <v>6.741221382594299</v>
       </c>
       <c r="Z88">
         <v>0</v>
@@ -8501,13 +8501,13 @@
         <v>0.87</v>
       </c>
       <c r="B89">
-        <v>0.06371590084370185</v>
+        <v>0.0595444597966517</v>
       </c>
       <c r="C89">
-        <v>35.220903160229</v>
+        <v>36.06731150716661</v>
       </c>
       <c r="D89">
-        <v>105.072903160229</v>
+        <v>105.9193115071666</v>
       </c>
       <c r="E89">
         <v>104.652</v>
@@ -8534,45 +8534,45 @@
         <v>18.3</v>
       </c>
       <c r="M89">
-        <v>3.7874232</v>
+        <v>2.7462072</v>
       </c>
       <c r="N89">
-        <v>14.5125768</v>
+        <v>15.5537928</v>
       </c>
       <c r="O89">
-        <v>3.192766896</v>
+        <v>3.421834416</v>
       </c>
       <c r="P89">
-        <v>11.319809904</v>
+        <v>12.131958384</v>
       </c>
       <c r="Q89">
-        <v>15.719809904</v>
+        <v>16.531958384</v>
       </c>
       <c r="R89">
         <v>6.692307692307692</v>
       </c>
       <c r="S89">
-        <v>0.3382203141823218</v>
+        <v>0.34789230612809</v>
       </c>
       <c r="T89">
         <v>3.36916498870171</v>
       </c>
       <c r="U89">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V89">
         <v>0.22</v>
       </c>
       <c r="W89">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X89" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y89">
-        <v>4.831781143443385</v>
+        <v>6.663736079346089</v>
       </c>
       <c r="Z89">
         <v>0</v>
@@ -8583,13 +8583,13 @@
         <v>0.88</v>
       </c>
       <c r="B90">
-        <v>0.06367084150428044</v>
+        <v>0.05949628046007908</v>
       </c>
       <c r="C90">
-        <v>33.80823224871838</v>
+        <v>34.6621752217483</v>
       </c>
       <c r="D90">
-        <v>105.1562322487184</v>
+        <v>106.0101752217483</v>
       </c>
       <c r="E90">
         <v>106.148</v>
@@ -8616,45 +8616,45 @@
         <v>18.3</v>
       </c>
       <c r="M90">
-        <v>3.8309568</v>
+        <v>2.7777728</v>
       </c>
       <c r="N90">
-        <v>14.4690432</v>
+        <v>15.5222272</v>
       </c>
       <c r="O90">
-        <v>3.183189504</v>
+        <v>3.414889984</v>
       </c>
       <c r="P90">
-        <v>11.285853696</v>
+        <v>12.107337216</v>
       </c>
       <c r="Q90">
-        <v>15.685853696</v>
+        <v>16.507337216</v>
       </c>
       <c r="R90">
         <v>7.333333333333334</v>
       </c>
       <c r="S90">
-        <v>0.3641383458690037</v>
+        <v>0.3751103371673256</v>
       </c>
       <c r="T90">
         <v>3.639998187150401</v>
       </c>
       <c r="U90">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V90">
         <v>0.22</v>
       </c>
       <c r="W90">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X90" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y90">
-        <v>4.776874539540619</v>
+        <v>6.588011805717155</v>
       </c>
       <c r="Z90">
         <v>0</v>
@@ -8665,13 +8665,13 @@
         <v>0.89</v>
       </c>
       <c r="B91">
-        <v>0.06362578216485905</v>
+        <v>0.05944810112350643</v>
       </c>
       <c r="C91">
-        <v>32.39569361199881</v>
+        <v>33.25719496648642</v>
       </c>
       <c r="D91">
-        <v>105.2396936119988</v>
+        <v>106.1011949664864</v>
       </c>
       <c r="E91">
         <v>107.644</v>
@@ -8698,45 +8698,45 @@
         <v>18.3</v>
       </c>
       <c r="M91">
-        <v>3.8744904</v>
+        <v>2.8093384</v>
       </c>
       <c r="N91">
-        <v>14.4255096</v>
+        <v>15.4906616</v>
       </c>
       <c r="O91">
-        <v>3.173612112</v>
+        <v>3.407945552</v>
       </c>
       <c r="P91">
-        <v>11.251897488</v>
+        <v>12.082716048</v>
       </c>
       <c r="Q91">
-        <v>15.651897488</v>
+        <v>16.482716048</v>
       </c>
       <c r="R91">
         <v>8.090909090909092</v>
       </c>
       <c r="S91">
-        <v>0.3947687469532641</v>
+        <v>0.4072771011227858</v>
       </c>
       <c r="T91">
         <v>3.960073785317035</v>
       </c>
       <c r="U91">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V91">
         <v>0.22</v>
       </c>
       <c r="W91">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X91" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y91">
-        <v>4.72320179190533</v>
+        <v>6.513989201158537</v>
       </c>
       <c r="Z91">
         <v>0</v>
@@ -8747,13 +8747,13 @@
         <v>0.9</v>
       </c>
       <c r="B92">
-        <v>0.06358072282543764</v>
+        <v>0.0593999217869338</v>
       </c>
       <c r="C92">
-        <v>30.98328756527579</v>
+        <v>31.85237114362607</v>
       </c>
       <c r="D92">
-        <v>105.3232875652758</v>
+        <v>106.1923711436261</v>
       </c>
       <c r="E92">
         <v>109.14</v>
@@ -8780,45 +8780,45 @@
         <v>18.3</v>
       </c>
       <c r="M92">
-        <v>3.918024</v>
+        <v>2.840904</v>
       </c>
       <c r="N92">
-        <v>14.381976</v>
+        <v>15.459096</v>
       </c>
       <c r="O92">
-        <v>3.164034720000001</v>
+        <v>3.40100112</v>
       </c>
       <c r="P92">
-        <v>11.21794128</v>
+        <v>12.05809488</v>
       </c>
       <c r="Q92">
-        <v>15.61794128</v>
+        <v>16.45809488</v>
       </c>
       <c r="R92">
         <v>9.000000000000002</v>
       </c>
       <c r="S92">
-        <v>0.4315252282543765</v>
+        <v>0.4458772178693381</v>
       </c>
       <c r="T92">
         <v>4.344164503116997</v>
       </c>
       <c r="U92">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V92">
         <v>0.22</v>
       </c>
       <c r="W92">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X92" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y92">
-        <v>4.670721771995272</v>
+        <v>6.441611543367887</v>
       </c>
       <c r="Z92">
         <v>0</v>
@@ -8829,13 +8829,13 @@
         <v>0.91</v>
       </c>
       <c r="B93">
-        <v>0.06353566348601625</v>
+        <v>0.06041644245036117</v>
       </c>
       <c r="C93">
-        <v>29.57101442475684</v>
+        <v>28.46530704223434</v>
       </c>
       <c r="D93">
-        <v>105.4070144247569</v>
+        <v>104.3013070422343</v>
       </c>
       <c r="E93">
         <v>110.636</v>
@@ -8862,37 +8862,37 @@
         <v>18.3</v>
       </c>
       <c r="M93">
-        <v>3.9615576</v>
+        <v>3.0766736</v>
       </c>
       <c r="N93">
-        <v>14.3384424</v>
+        <v>15.2233264</v>
       </c>
       <c r="O93">
-        <v>3.154457328</v>
+        <v>3.349131808</v>
       </c>
       <c r="P93">
-        <v>11.183985072</v>
+        <v>11.874194592</v>
       </c>
       <c r="Q93">
-        <v>15.583985072</v>
+        <v>16.274194592</v>
       </c>
       <c r="R93">
         <v>10.11111111111111</v>
       </c>
       <c r="S93">
-        <v>0.4764498165112918</v>
+        <v>0.4930551383373465</v>
       </c>
       <c r="T93">
         <v>4.813608713761395</v>
       </c>
       <c r="U93">
-        <v>0.0291</v>
+        <v>0.0226</v>
       </c>
       <c r="V93">
         <v>0.22</v>
       </c>
       <c r="W93">
-        <v>0.022698</v>
+        <v>0.017628</v>
       </c>
       <c r="X93" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         </is>
       </c>
       <c r="Y93">
-        <v>4.619395159116203</v>
+        <v>5.947982262401836</v>
       </c>
       <c r="Z93">
         <v>0</v>
@@ -8911,13 +8911,13 @@
         <v>0.92</v>
       </c>
       <c r="B94">
-        <v>0.06349060414659485</v>
+        <v>0.06037996311378853</v>
       </c>
       <c r="C94">
-        <v>28.15887450765604</v>
+        <v>27.03600476918655</v>
       </c>
       <c r="D94">
-        <v>105.490874507656</v>
+        <v>104.3680047691865</v>
       </c>
       <c r="E94">
         <v>112.132</v>
@@ -8944,37 +8944,37 @@
         <v>18.3</v>
       </c>
       <c r="M94">
-        <v>4.0050912</v>
+        <v>3.1104832</v>
       </c>
       <c r="N94">
-        <v>14.2949088</v>
+        <v>15.1895168</v>
       </c>
       <c r="O94">
-        <v>3.144879936000001</v>
+        <v>3.341693696</v>
       </c>
       <c r="P94">
-        <v>11.150028864</v>
+        <v>11.847823104</v>
       </c>
       <c r="Q94">
-        <v>15.550028864</v>
+        <v>16.247823104</v>
       </c>
       <c r="R94">
         <v>11.50000000000001</v>
       </c>
       <c r="S94">
-        <v>0.532605551832436</v>
+        <v>0.5520275389223569</v>
       </c>
       <c r="T94">
         <v>5.400413977066893</v>
       </c>
       <c r="U94">
-        <v>0.0291</v>
+        <v>0.0226</v>
       </c>
       <c r="V94">
         <v>0.22</v>
       </c>
       <c r="W94">
-        <v>0.022698</v>
+        <v>0.017628</v>
       </c>
       <c r="X94" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         </is>
       </c>
       <c r="Y94">
-        <v>4.569184342169287</v>
+        <v>5.883330281288772</v>
       </c>
       <c r="Z94">
         <v>0</v>
@@ -8993,13 +8993,13 @@
         <v>0.93</v>
       </c>
       <c r="B95">
-        <v>0.06344554480717346</v>
+        <v>0.06034348377721589</v>
       </c>
       <c r="C95">
-        <v>26.74686813219753</v>
+        <v>25.60678785333076</v>
       </c>
       <c r="D95">
-        <v>105.5748681321976</v>
+        <v>104.4347878533308</v>
       </c>
       <c r="E95">
         <v>113.628</v>
@@ -9026,37 +9026,37 @@
         <v>18.3</v>
       </c>
       <c r="M95">
-        <v>4.048624800000001</v>
+        <v>3.1442928</v>
       </c>
       <c r="N95">
-        <v>14.2513752</v>
+        <v>15.1557072</v>
       </c>
       <c r="O95">
-        <v>3.135302544</v>
+        <v>3.334255584</v>
       </c>
       <c r="P95">
-        <v>11.116072656</v>
+        <v>11.821451616</v>
       </c>
       <c r="Q95">
-        <v>15.516072656</v>
+        <v>16.221451616</v>
       </c>
       <c r="R95">
         <v>13.2857142857143</v>
       </c>
       <c r="S95">
-        <v>0.6048057829596211</v>
+        <v>0.6278491968173703</v>
       </c>
       <c r="T95">
         <v>6.154877887031103</v>
       </c>
       <c r="U95">
-        <v>0.0291</v>
+        <v>0.0226</v>
       </c>
       <c r="V95">
         <v>0.22</v>
       </c>
       <c r="W95">
-        <v>0.022698</v>
+        <v>0.017628</v>
       </c>
       <c r="X95" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         </is>
       </c>
       <c r="Y95">
-        <v>4.520053327737358</v>
+        <v>5.820068665360936</v>
       </c>
       <c r="Z95">
         <v>0</v>
@@ -9075,13 +9075,13 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="B96">
-        <v>0.08928244546775205</v>
+        <v>0.06030700444064326</v>
       </c>
       <c r="C96">
-        <v>-7.841099386733305</v>
+        <v>24.17765645862718</v>
       </c>
       <c r="D96">
-        <v>72.48290061326669</v>
+        <v>104.5016564586272</v>
       </c>
       <c r="E96">
         <v>115.124</v>
@@ -9108,45 +9108,45 @@
         <v>18.3</v>
       </c>
       <c r="M96">
-        <v>9.056185599999999</v>
+        <v>3.1781024</v>
       </c>
       <c r="N96">
-        <v>9.243814400000002</v>
+        <v>15.1218976</v>
       </c>
       <c r="O96">
-        <v>2.033639168000001</v>
+        <v>3.326817472</v>
       </c>
       <c r="P96">
-        <v>7.210175232000001</v>
+        <v>11.795080128</v>
       </c>
       <c r="Q96">
-        <v>11.610175232</v>
+        <v>16.195080128</v>
       </c>
       <c r="R96">
         <v>15.66666666666668</v>
       </c>
       <c r="S96">
-        <v>0.7010727577958682</v>
+        <v>0.7289447406773883</v>
       </c>
       <c r="T96">
         <v>7.160829766983385</v>
       </c>
       <c r="U96">
-        <v>0.0644</v>
+        <v>0.0226</v>
       </c>
       <c r="V96">
         <v>0.22</v>
       </c>
       <c r="W96">
-        <v>0.050232</v>
+        <v>0.017628</v>
       </c>
       <c r="X96" t="inlineStr">
         <is>
-          <t>B2/B</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y96">
-        <v>2.020718303299791</v>
+        <v>5.758153041261352</v>
       </c>
       <c r="Z96">
         <v>0</v>
@@ -9157,13 +9157,13 @@
         <v>0.9500000000000001</v>
       </c>
       <c r="B97">
-        <v>0.09751552612833066</v>
+        <v>0.06027052510407062</v>
       </c>
       <c r="C97">
-        <v>-15.91934009450038</v>
+        <v>22.74861074945619</v>
       </c>
       <c r="D97">
-        <v>65.90065990549962</v>
+        <v>104.5686107494562</v>
       </c>
       <c r="E97">
         <v>116.62</v>
@@ -9190,45 +9190,45 @@
         <v>18.3</v>
       </c>
       <c r="M97">
-        <v>10.687424</v>
+        <v>3.211912</v>
       </c>
       <c r="N97">
-        <v>7.612576000000001</v>
+        <v>15.088088</v>
       </c>
       <c r="O97">
-        <v>1.67476672</v>
+        <v>3.31937936</v>
       </c>
       <c r="P97">
-        <v>5.937809280000001</v>
+        <v>11.76870864</v>
       </c>
       <c r="Q97">
-        <v>10.33780928</v>
+        <v>16.16870864</v>
       </c>
       <c r="R97">
         <v>19.00000000000003</v>
       </c>
       <c r="S97">
-        <v>0.8358465225666141</v>
+        <v>0.8704785020814135</v>
       </c>
       <c r="T97">
         <v>8.56916239891658</v>
       </c>
       <c r="U97">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V97">
         <v>0.22</v>
       </c>
       <c r="W97">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X97" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y97">
-        <v>1.712292878059297</v>
+        <v>5.697540903984916</v>
       </c>
       <c r="Z97">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0.96</v>
       </c>
       <c r="B98">
-        <v>0.09783004678890926</v>
+        <v>0.06023404576749798</v>
       </c>
       <c r="C98">
-        <v>-17.6431700030512</v>
+        <v>21.31965089061981</v>
       </c>
       <c r="D98">
-        <v>65.67282999694879</v>
+        <v>104.6356508906198</v>
       </c>
       <c r="E98">
         <v>118.116</v>
@@ -9272,45 +9272,45 @@
         <v>18.3</v>
       </c>
       <c r="M98">
-        <v>10.7999232</v>
+        <v>3.2457216</v>
       </c>
       <c r="N98">
-        <v>7.500076800000002</v>
+        <v>15.0542784</v>
       </c>
       <c r="O98">
-        <v>1.650016896000001</v>
+        <v>3.311941248</v>
       </c>
       <c r="P98">
-        <v>5.850059904000002</v>
+        <v>11.742337152</v>
       </c>
       <c r="Q98">
-        <v>10.250059904</v>
+        <v>16.142337152</v>
       </c>
       <c r="R98">
         <v>23.99999999999998</v>
       </c>
       <c r="S98">
-        <v>1.03800716972273</v>
+        <v>1.082779144187449</v>
       </c>
       <c r="T98">
         <v>10.68166134681635</v>
       </c>
       <c r="U98">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V98">
         <v>0.22</v>
       </c>
       <c r="W98">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X98" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y98">
-        <v>1.694456493912846</v>
+        <v>5.638191519568408</v>
       </c>
       <c r="Z98">
         <v>0</v>
@@ -9321,13 +9321,13 @@
         <v>0.97</v>
       </c>
       <c r="B99">
-        <v>0.09814456744948785</v>
+        <v>0.06019756643092536</v>
       </c>
       <c r="C99">
-        <v>-19.36543004459385</v>
+        <v>19.89077704734277</v>
       </c>
       <c r="D99">
-        <v>65.44656995540615</v>
+        <v>104.7027770473428</v>
       </c>
       <c r="E99">
         <v>119.612</v>
@@ -9354,45 +9354,45 @@
         <v>18.3</v>
       </c>
       <c r="M99">
-        <v>10.9124224</v>
+        <v>3.2795312</v>
       </c>
       <c r="N99">
-        <v>7.3875776</v>
+        <v>15.0204688</v>
       </c>
       <c r="O99">
-        <v>1.625267072</v>
+        <v>3.304503136000001</v>
       </c>
       <c r="P99">
-        <v>5.762310528</v>
+        <v>11.715965664</v>
       </c>
       <c r="Q99">
-        <v>10.162310528</v>
+        <v>16.115965664</v>
       </c>
       <c r="R99">
         <v>32.33333333333331</v>
       </c>
       <c r="S99">
-        <v>1.374941581649594</v>
+        <v>1.436613547697511</v>
       </c>
       <c r="T99">
         <v>14.20249292664932</v>
       </c>
       <c r="U99">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V99">
         <v>0.22</v>
       </c>
       <c r="W99">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X99" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y99">
-        <v>1.67698787026426</v>
+        <v>5.580065833799661</v>
       </c>
       <c r="Z99">
         <v>0</v>
@@ -9403,13 +9403,13 @@
         <v>0.98</v>
       </c>
       <c r="B100">
-        <v>0.09845908811006646</v>
+        <v>0.06016108709435272</v>
       </c>
       <c r="C100">
-        <v>-21.08613638922296</v>
+        <v>18.46198938527428</v>
       </c>
       <c r="D100">
-        <v>65.22186361077705</v>
+        <v>104.7699893852743</v>
       </c>
       <c r="E100">
         <v>121.108</v>
@@ -9436,45 +9436,45 @@
         <v>18.3</v>
       </c>
       <c r="M100">
-        <v>11.0249216</v>
+        <v>3.3133408</v>
       </c>
       <c r="N100">
-        <v>7.2750784</v>
+        <v>14.9866592</v>
       </c>
       <c r="O100">
-        <v>1.600517248</v>
+        <v>3.297065024000001</v>
       </c>
       <c r="P100">
-        <v>5.674561152</v>
+        <v>11.689594176</v>
       </c>
       <c r="Q100">
-        <v>10.074561152</v>
+        <v>16.089594176</v>
       </c>
       <c r="R100">
         <v>48.99999999999996</v>
       </c>
       <c r="S100">
-        <v>2.048810405503321</v>
+        <v>2.144282354717634</v>
       </c>
       <c r="T100">
         <v>21.24415608631527</v>
       </c>
       <c r="U100">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V100">
         <v>0.22</v>
       </c>
       <c r="W100">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X100" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y100">
-        <v>1.659875749139114</v>
+        <v>5.523126386515991</v>
       </c>
       <c r="Z100">
         <v>0</v>
@@ -9485,13 +9485,13 @@
         <v>0.99</v>
       </c>
       <c r="B101">
-        <v>0.09877360877064506</v>
+        <v>0.06012460775778007</v>
       </c>
       <c r="C101">
-        <v>-22.80530498571737</v>
+        <v>17.03328807048902</v>
       </c>
       <c r="D101">
-        <v>64.99869501428262</v>
+        <v>104.837288070489</v>
       </c>
       <c r="E101">
         <v>122.604</v>
@@ -9518,45 +9518,45 @@
         <v>18.3</v>
       </c>
       <c r="M101">
-        <v>11.1374208</v>
+        <v>3.347150399999999</v>
       </c>
       <c r="N101">
-        <v>7.162579200000001</v>
+        <v>14.9528496</v>
       </c>
       <c r="O101">
-        <v>1.575767424</v>
+        <v>3.289626912</v>
       </c>
       <c r="P101">
-        <v>5.586811776000001</v>
+        <v>11.663222688</v>
       </c>
       <c r="Q101">
-        <v>9.986811776</v>
+        <v>16.063222688</v>
       </c>
       <c r="R101">
         <v>98.99999999999991</v>
       </c>
       <c r="S101">
-        <v>4.070416877064501</v>
+        <v>4.267288775778003</v>
       </c>
       <c r="T101">
         <v>42.36914556531311</v>
       </c>
       <c r="U101">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V101">
         <v>0.22</v>
       </c>
       <c r="W101">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X101" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y101">
-        <v>1.643109327430638</v>
+        <v>5.467337231096637</v>
       </c>
       <c r="Z101">
         <v>0</v>
